--- a/final_df.xlsx
+++ b/final_df.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hema/Desktop/butlerdata/Machine-Learning-Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattw\Butlerdata\Machine-Learning-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1239E509-456E-1A49-B459-5B403D60A4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FB5699-F5AE-400E-B425-300BD82FCE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="980" yWindow="1120" windowWidth="26980" windowHeight="15380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,17 +19,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$593</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -2391,18 +2380,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O507"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:O593"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O496" sqref="O496:O507"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="H594" sqref="H594"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1796875" customWidth="1"/>
+    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2449,7 +2440,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>437</v>
       </c>
@@ -2496,7 +2487,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>442</v>
       </c>
@@ -2543,7 +2534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>447</v>
       </c>
@@ -2590,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>449</v>
       </c>
@@ -2637,7 +2628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>451</v>
       </c>
@@ -2684,7 +2675,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>466</v>
       </c>
@@ -2731,7 +2722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -2778,7 +2769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>470</v>
       </c>
@@ -2825,7 +2816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>471</v>
       </c>
@@ -2872,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>477</v>
       </c>
@@ -2919,7 +2910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>478</v>
       </c>
@@ -2966,7 +2957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>481</v>
       </c>
@@ -3013,7 +3004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>485</v>
       </c>
@@ -3060,7 +3051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>493</v>
       </c>
@@ -3107,7 +3098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>502</v>
       </c>
@@ -3154,7 +3145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>510</v>
       </c>
@@ -3201,7 +3192,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>512</v>
       </c>
@@ -3248,7 +3239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>371</v>
       </c>
@@ -3295,7 +3286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>380</v>
       </c>
@@ -3342,7 +3333,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>382</v>
       </c>
@@ -3389,7 +3380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>391</v>
       </c>
@@ -3436,7 +3427,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>393</v>
       </c>
@@ -3483,7 +3474,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>405</v>
       </c>
@@ -3530,7 +3521,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>412</v>
       </c>
@@ -3577,7 +3568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>425</v>
       </c>
@@ -3624,7 +3615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>427</v>
       </c>
@@ -3671,7 +3662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>430</v>
       </c>
@@ -3718,7 +3709,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>276</v>
       </c>
@@ -3765,7 +3756,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>288</v>
       </c>
@@ -3812,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -3859,7 +3850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>298</v>
       </c>
@@ -3906,7 +3897,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>309</v>
       </c>
@@ -3953,7 +3944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>314</v>
       </c>
@@ -4000,7 +3991,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>323</v>
       </c>
@@ -4047,7 +4038,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>324</v>
       </c>
@@ -4094,7 +4085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>326</v>
       </c>
@@ -4141,7 +4132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>334</v>
       </c>
@@ -4188,7 +4179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>339</v>
       </c>
@@ -4235,7 +4226,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>341</v>
       </c>
@@ -4282,7 +4273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>344</v>
       </c>
@@ -4329,7 +4320,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>347</v>
       </c>
@@ -4376,7 +4367,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>352</v>
       </c>
@@ -4423,7 +4414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>354</v>
       </c>
@@ -4470,7 +4461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>359</v>
       </c>
@@ -4517,7 +4508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>360</v>
       </c>
@@ -4564,7 +4555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>189</v>
       </c>
@@ -4611,7 +4602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>190</v>
       </c>
@@ -4658,12 +4649,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B49" t="s">
-        <v>519</v>
+        <v>514</v>
       </c>
       <c r="C49">
         <v>2012</v>
@@ -4672,31 +4663,31 @@
         <v>1</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G49">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H49">
-        <v>24</v>
+        <v>137</v>
       </c>
       <c r="I49">
-        <v>353658</v>
+        <v>40117096</v>
       </c>
       <c r="J49">
-        <v>7.79</v>
+        <v>445.99</v>
       </c>
       <c r="K49">
-        <v>24.7736546</v>
+        <v>-34.996496299999997</v>
       </c>
       <c r="L49">
-        <v>-78.000054700000007</v>
+        <v>-64.967281700000001</v>
       </c>
       <c r="M49">
-        <v>7</v>
+        <v>270</v>
       </c>
       <c r="N49">
         <v>0</v>
@@ -4705,12 +4696,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B50" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="C50">
         <v>2012</v>
@@ -4719,31 +4710,31 @@
         <v>0</v>
       </c>
       <c r="E50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G50">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H50">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I50">
-        <v>1234571</v>
+        <v>3275700</v>
       </c>
       <c r="J50">
-        <v>21.9</v>
+        <v>10.25</v>
       </c>
       <c r="K50">
-        <v>26.155124900000001</v>
+        <v>40.769627200000002</v>
       </c>
       <c r="L50">
-        <v>50.534460600000003</v>
+        <v>44.673664600000002</v>
       </c>
       <c r="M50">
-        <v>20</v>
+        <v>2359</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -4752,92 +4743,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B51" t="s">
-        <v>524</v>
+        <v>516</v>
       </c>
       <c r="C51">
         <v>2012</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E51">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F51">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G51">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="H51">
-        <v>4</v>
+        <v>410</v>
       </c>
       <c r="I51">
-        <v>2024904</v>
+        <v>22823882</v>
       </c>
       <c r="J51">
-        <v>17.63</v>
+        <v>1371.76</v>
       </c>
       <c r="K51">
-        <v>-23.1681782</v>
+        <v>-24.776108600000001</v>
       </c>
       <c r="L51">
-        <v>24.592874200000001</v>
+        <v>134.755</v>
       </c>
       <c r="M51">
-        <v>1004</v>
+        <v>284</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="B52" t="s">
-        <v>607</v>
+        <v>518</v>
       </c>
       <c r="C52">
         <v>2012</v>
       </c>
       <c r="D52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E52">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F52">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H52">
-        <v>277</v>
+        <v>53</v>
       </c>
       <c r="I52">
-        <v>34990400</v>
+        <v>9235100</v>
       </c>
       <c r="J52">
-        <v>29.12</v>
+        <v>63.4</v>
       </c>
       <c r="K52">
-        <v>4.6125521999999997</v>
+        <v>40.393629400000002</v>
       </c>
       <c r="L52">
-        <v>13.153810999999999</v>
+        <v>47.787250800000002</v>
       </c>
       <c r="M52">
-        <v>667</v>
+        <v>0</v>
       </c>
       <c r="N52">
         <v>0</v>
@@ -4846,21 +4837,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="B53" t="s">
-        <v>608</v>
+        <v>519</v>
       </c>
       <c r="C53">
         <v>2012</v>
       </c>
       <c r="D53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53">
         <v>0</v>
@@ -4869,22 +4860,22 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>133</v>
+        <v>24</v>
       </c>
       <c r="I53">
-        <v>10507566</v>
+        <v>353658</v>
       </c>
       <c r="J53">
-        <v>24.69</v>
+        <v>7.79</v>
       </c>
       <c r="K53">
-        <v>34.982301800000002</v>
+        <v>24.7736546</v>
       </c>
       <c r="L53">
-        <v>33.145128499999998</v>
+        <v>-78.000054700000007</v>
       </c>
       <c r="M53">
-        <v>609</v>
+        <v>7</v>
       </c>
       <c r="N53">
         <v>0</v>
@@ -4893,12 +4884,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="B54" t="s">
-        <v>609</v>
+        <v>520</v>
       </c>
       <c r="C54">
         <v>2012</v>
@@ -4907,31 +4898,31 @@
         <v>0</v>
       </c>
       <c r="E54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G54">
         <v>1</v>
       </c>
       <c r="H54">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="I54">
-        <v>4497600</v>
+        <v>1234571</v>
       </c>
       <c r="J54">
-        <v>17.05</v>
+        <v>21.9</v>
       </c>
       <c r="K54">
-        <v>-0.89996900000000002</v>
+        <v>26.155124900000001</v>
       </c>
       <c r="L54">
-        <v>11.689970000000001</v>
+        <v>50.534460600000003</v>
       </c>
       <c r="M54">
-        <v>553</v>
+        <v>20</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -4940,59 +4931,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="B55" t="s">
-        <v>548</v>
+        <v>521</v>
       </c>
       <c r="C55">
         <v>2012</v>
       </c>
       <c r="D55">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F55">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G55">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H55">
-        <v>19</v>
+        <v>165</v>
       </c>
       <c r="I55">
-        <v>14713763</v>
+        <v>9460000</v>
       </c>
       <c r="J55">
-        <v>0.82</v>
+        <v>55.14</v>
       </c>
       <c r="K55">
-        <v>12.136037</v>
+        <v>53.425060500000001</v>
       </c>
       <c r="L55">
-        <v>-61.690404000000001</v>
+        <v>27.697135800000002</v>
       </c>
       <c r="M55">
-        <v>414</v>
+        <v>174</v>
       </c>
       <c r="N55">
         <v>0</v>
       </c>
       <c r="O55">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="B56" t="s">
-        <v>610</v>
+        <v>522</v>
       </c>
       <c r="C56">
         <v>2012</v>
@@ -5004,28 +4995,28 @@
         <v>1</v>
       </c>
       <c r="F56">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G56">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H56">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="I56">
-        <v>7103700</v>
+        <v>10839905</v>
       </c>
       <c r="J56">
-        <v>46.9</v>
+        <v>511.53</v>
       </c>
       <c r="K56">
-        <v>15.635609000000001</v>
+        <v>50.6402809</v>
       </c>
       <c r="L56">
-        <v>-89.898809</v>
+        <v>4.6667145000000003</v>
       </c>
       <c r="M56">
-        <v>1016</v>
+        <v>144</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -5034,12 +5025,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="B57" t="s">
-        <v>549</v>
+        <v>524</v>
       </c>
       <c r="C57">
         <v>2012</v>
@@ -5048,31 +5039,31 @@
         <v>0</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G57">
         <v>1</v>
       </c>
       <c r="H57">
-        <v>157</v>
+        <v>4</v>
       </c>
       <c r="I57">
-        <v>9957731</v>
+        <v>2024904</v>
       </c>
       <c r="J57">
-        <v>243.67</v>
+        <v>17.63</v>
       </c>
       <c r="K57">
-        <v>22.279328</v>
+        <v>-23.1681782</v>
       </c>
       <c r="L57">
-        <v>114.162813</v>
+        <v>24.592874200000001</v>
       </c>
       <c r="M57">
-        <v>123</v>
+        <v>1004</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -5081,59 +5072,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>235</v>
+        <v>200</v>
       </c>
       <c r="B58" t="s">
-        <v>563</v>
+        <v>525</v>
       </c>
       <c r="C58">
         <v>2012</v>
       </c>
       <c r="D58">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E58">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F58">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="G58">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="H58">
-        <v>46</v>
+        <v>258</v>
       </c>
       <c r="I58">
-        <v>2070371</v>
+        <v>193946886</v>
       </c>
       <c r="J58">
-        <v>176.59</v>
+        <v>2476.65</v>
       </c>
       <c r="K58">
-        <v>29.273396000000002</v>
+        <v>-10.333333</v>
       </c>
       <c r="L58">
-        <v>47.497948000000001</v>
+        <v>-53.2</v>
       </c>
       <c r="M58">
-        <v>164</v>
+        <v>305</v>
       </c>
       <c r="N58">
         <v>0</v>
       </c>
       <c r="O58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="B59" t="s">
-        <v>611</v>
+        <v>526</v>
       </c>
       <c r="C59">
         <v>2012</v>
@@ -5145,28 +5136,28 @@
         <v>1</v>
       </c>
       <c r="F59">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H59">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="I59">
-        <v>32741100</v>
+        <v>7364570</v>
       </c>
       <c r="J59">
-        <v>4.55</v>
+        <v>53.51</v>
       </c>
       <c r="K59">
-        <v>42.986885000000001</v>
+        <v>42.607397499999998</v>
       </c>
       <c r="L59">
-        <v>19.518098999999999</v>
+        <v>25.485661700000001</v>
       </c>
       <c r="M59">
-        <v>937</v>
+        <v>360</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -5175,12 +5166,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>243</v>
+        <v>202</v>
       </c>
       <c r="B60" t="s">
-        <v>572</v>
+        <v>607</v>
       </c>
       <c r="C60">
         <v>2012</v>
@@ -5198,22 +5189,22 @@
         <v>1</v>
       </c>
       <c r="H60">
-        <v>175</v>
+        <v>33</v>
       </c>
       <c r="I60">
-        <v>16765558</v>
+        <v>34990400</v>
       </c>
       <c r="J60">
-        <v>100.22</v>
+        <v>29.12</v>
       </c>
       <c r="K60">
-        <v>31.172820999999999</v>
+        <v>4.6125521999999997</v>
       </c>
       <c r="L60">
-        <v>-7.3362480000000003</v>
+        <v>13.153810999999999</v>
       </c>
       <c r="M60">
-        <v>1983</v>
+        <v>667</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -5222,139 +5213,139 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="B61" t="s">
-        <v>580</v>
+        <v>528</v>
       </c>
       <c r="C61">
         <v>2012</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E61">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G61">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="H61">
-        <v>25</v>
+        <v>277</v>
       </c>
       <c r="I61">
-        <v>3706690</v>
+        <v>1347350000</v>
       </c>
       <c r="J61">
-        <v>237.52</v>
+        <v>1736.05</v>
       </c>
       <c r="K61">
-        <v>40.033262999999998</v>
+        <v>61.066692199999999</v>
       </c>
       <c r="L61">
-        <v>-7.8896259999999998</v>
+        <v>-107.99170700000001</v>
       </c>
       <c r="M61">
-        <v>417</v>
+        <v>431</v>
       </c>
       <c r="N61">
         <v>0</v>
       </c>
       <c r="O61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="B62" t="s">
-        <v>585</v>
+        <v>529</v>
       </c>
       <c r="C62">
         <v>2012</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F62">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="G62">
-        <v>1</v>
+        <v>87</v>
       </c>
       <c r="H62">
-        <v>116</v>
+        <v>396</v>
       </c>
       <c r="I62">
-        <v>7120666</v>
+        <v>46803000</v>
       </c>
       <c r="J62">
-        <v>576.82000000000005</v>
+        <v>7298.1</v>
       </c>
       <c r="K62">
-        <v>25.624262000000002</v>
+        <v>35.000073999999998</v>
       </c>
       <c r="L62">
-        <v>42.352832999999997</v>
+        <v>104.999927</v>
       </c>
       <c r="M62">
-        <v>792</v>
+        <v>1958</v>
       </c>
       <c r="N62">
         <v>0</v>
       </c>
       <c r="O62">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>265</v>
+        <v>205</v>
       </c>
       <c r="B63" t="s">
-        <v>615</v>
+        <v>530</v>
       </c>
       <c r="C63">
         <v>2012</v>
       </c>
       <c r="D63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F63">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G63">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="H63">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="I63">
-        <v>65479453</v>
+        <v>4290612</v>
       </c>
       <c r="J63">
-        <v>6.52</v>
+        <v>331.65</v>
       </c>
       <c r="K63">
-        <v>38.628172999999997</v>
+        <v>2.8894434000000002</v>
       </c>
       <c r="L63">
-        <v>70.815653999999995</v>
+        <v>-73.783891999999994</v>
       </c>
       <c r="M63">
-        <v>3336</v>
+        <v>255</v>
       </c>
       <c r="N63">
         <v>0</v>
@@ -5363,45 +5354,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>270</v>
+        <v>206</v>
       </c>
       <c r="B64" t="s">
-        <v>600</v>
+        <v>531</v>
       </c>
       <c r="C64">
         <v>2012</v>
       </c>
       <c r="D64">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G64">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H64">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="I64">
-        <v>45560272</v>
+        <v>11247925</v>
       </c>
       <c r="J64">
-        <v>16.809999999999999</v>
+        <v>63.85</v>
       </c>
       <c r="K64">
-        <v>1.533355</v>
+        <v>45.564344200000001</v>
       </c>
       <c r="L64">
-        <v>32.216658000000002</v>
+        <v>17.0118954</v>
       </c>
       <c r="M64">
-        <v>1058</v>
+        <v>117</v>
       </c>
       <c r="N64">
         <v>0</v>
@@ -5410,59 +5401,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>274</v>
+        <v>207</v>
       </c>
       <c r="B65" t="s">
-        <v>604</v>
+        <v>532</v>
       </c>
       <c r="C65">
         <v>2012</v>
       </c>
       <c r="D65">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G65">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="H65">
-        <v>33</v>
+        <v>110</v>
       </c>
       <c r="I65">
-        <v>19406100</v>
+        <v>838897</v>
       </c>
       <c r="J65">
-        <v>316.48</v>
+        <v>60.81</v>
       </c>
       <c r="K65">
-        <v>8.0018709999999995</v>
+        <v>23.013133799999999</v>
       </c>
       <c r="L65">
-        <v>-66.110932000000005</v>
+        <v>-80.832874799999999</v>
       </c>
       <c r="M65">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="N65">
         <v>0</v>
       </c>
       <c r="O65">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="B66" t="s">
-        <v>617</v>
+        <v>608</v>
       </c>
       <c r="C66">
         <v>2012</v>
@@ -5471,31 +5462,31 @@
         <v>0</v>
       </c>
       <c r="E66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G66">
         <v>1</v>
       </c>
       <c r="H66">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="I66">
-        <v>87840000</v>
+        <v>10507566</v>
       </c>
       <c r="J66">
-        <v>1.95</v>
+        <v>24.69</v>
       </c>
       <c r="K66">
-        <v>13.290403</v>
+        <v>34.982301800000002</v>
       </c>
       <c r="L66">
-        <v>108.426511</v>
+        <v>33.145128499999998</v>
       </c>
       <c r="M66">
-        <v>399</v>
+        <v>609</v>
       </c>
       <c r="N66">
         <v>0</v>
@@ -5504,7 +5495,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>180</v>
       </c>
@@ -5551,7 +5542,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>171</v>
       </c>
@@ -5598,7 +5589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>181</v>
       </c>
@@ -5645,7 +5636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>182</v>
       </c>
@@ -5692,7 +5683,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -5739,7 +5730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>183</v>
       </c>
@@ -5786,7 +5777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>172</v>
       </c>
@@ -5833,7 +5824,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>157</v>
       </c>
@@ -5880,7 +5871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>158</v>
       </c>
@@ -5927,7 +5918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>184</v>
       </c>
@@ -5974,7 +5965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>173</v>
       </c>
@@ -6021,7 +6012,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>185</v>
       </c>
@@ -6068,7 +6059,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>174</v>
       </c>
@@ -6115,7 +6106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>186</v>
       </c>
@@ -6162,7 +6153,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>159</v>
       </c>
@@ -6209,7 +6200,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>175</v>
       </c>
@@ -6256,7 +6247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>160</v>
       </c>
@@ -6303,7 +6294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>161</v>
       </c>
@@ -6350,7 +6341,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>187</v>
       </c>
@@ -6397,7 +6388,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>188</v>
       </c>
@@ -6444,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -6491,7 +6482,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -6538,7 +6529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -6585,7 +6576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -6632,7 +6623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -6679,7 +6670,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>47</v>
       </c>
@@ -6726,7 +6717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>640</v>
       </c>
@@ -6773,7 +6764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>62</v>
       </c>
@@ -6820,7 +6811,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>65</v>
       </c>
@@ -6867,7 +6858,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>66</v>
       </c>
@@ -6914,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -6961,7 +6952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>71</v>
       </c>
@@ -7008,7 +6999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>72</v>
       </c>
@@ -7055,7 +7046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>80</v>
       </c>
@@ -7102,7 +7093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>84</v>
       </c>
@@ -7149,7 +7140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>93</v>
       </c>
@@ -7196,7 +7187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -7243,7 +7234,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>452</v>
       </c>
@@ -7290,7 +7281,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>453</v>
       </c>
@@ -7337,7 +7328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>483</v>
       </c>
@@ -7384,7 +7375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>492</v>
       </c>
@@ -7431,7 +7422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>496</v>
       </c>
@@ -7478,7 +7469,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>498</v>
       </c>
@@ -7525,7 +7516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>506</v>
       </c>
@@ -7572,7 +7563,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>366</v>
       </c>
@@ -7619,7 +7610,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>375</v>
       </c>
@@ -7666,7 +7657,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>385</v>
       </c>
@@ -7713,7 +7704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>396</v>
       </c>
@@ -7760,7 +7751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>409</v>
       </c>
@@ -7807,7 +7798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>417</v>
       </c>
@@ -7854,7 +7845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>433</v>
       </c>
@@ -7901,7 +7892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>277</v>
       </c>
@@ -7948,7 +7939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>283</v>
       </c>
@@ -7995,7 +7986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>285</v>
       </c>
@@ -8042,7 +8033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>297</v>
       </c>
@@ -8089,7 +8080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>299</v>
       </c>
@@ -8136,7 +8127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>300</v>
       </c>
@@ -8183,7 +8174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>312</v>
       </c>
@@ -8230,7 +8221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>328</v>
       </c>
@@ -8277,7 +8268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>336</v>
       </c>
@@ -8324,7 +8315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>350</v>
       </c>
@@ -8371,7 +8362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>353</v>
       </c>
@@ -8418,45 +8409,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B129" t="s">
-        <v>526</v>
+        <v>533</v>
       </c>
       <c r="C129">
         <v>2012</v>
       </c>
       <c r="D129">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F129">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G129">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="H129">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="I129">
-        <v>7364570</v>
+        <v>5587085</v>
       </c>
       <c r="J129">
-        <v>53.51</v>
+        <v>215.22</v>
       </c>
       <c r="K129">
-        <v>42.607397499999998</v>
+        <v>50.425168800000002</v>
       </c>
       <c r="L129">
-        <v>25.485661700000001</v>
+        <v>14.256743999999999</v>
       </c>
       <c r="M129">
-        <v>360</v>
+        <v>384</v>
       </c>
       <c r="N129">
         <v>0</v>
@@ -8465,68 +8456,68 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B130" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C130">
         <v>2012</v>
       </c>
       <c r="D130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E130">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F130">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G130">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="H130">
         <v>113</v>
       </c>
       <c r="I130">
-        <v>82886000</v>
+        <v>9445281</v>
       </c>
       <c r="J130">
-        <v>55.61</v>
+        <v>332.68</v>
       </c>
       <c r="K130">
-        <v>18.892313000000001</v>
+        <v>55.670248999999998</v>
       </c>
       <c r="L130">
-        <v>-70.086478999999997</v>
+        <v>10.333328</v>
       </c>
       <c r="M130">
+        <v>0</v>
+      </c>
+      <c r="N130">
+        <v>0</v>
+      </c>
+      <c r="O130">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
         <v>211</v>
       </c>
-      <c r="N130">
-        <v>0</v>
-      </c>
-      <c r="O130">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>212</v>
-      </c>
       <c r="B131" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="C131">
         <v>2012</v>
       </c>
       <c r="D131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F131">
         <v>0</v>
@@ -8535,22 +8526,22 @@
         <v>2</v>
       </c>
       <c r="H131">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="I131">
-        <v>1294236</v>
+        <v>82886000</v>
       </c>
       <c r="J131">
-        <v>229.53</v>
+        <v>55.61</v>
       </c>
       <c r="K131">
-        <v>26.254048999999998</v>
+        <v>18.892313000000001</v>
       </c>
       <c r="L131">
-        <v>29.267547</v>
+        <v>-70.086478999999997</v>
       </c>
       <c r="M131">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="N131">
         <v>0</v>
@@ -8559,12 +8550,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B132" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C132">
         <v>2012</v>
@@ -8573,31 +8564,31 @@
         <v>0</v>
       </c>
       <c r="E132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G132">
         <v>2</v>
       </c>
       <c r="H132">
-        <v>35</v>
+        <v>113</v>
       </c>
       <c r="I132">
-        <v>84320987</v>
+        <v>1294236</v>
       </c>
       <c r="J132">
-        <v>22.18</v>
+        <v>229.53</v>
       </c>
       <c r="K132">
-        <v>58.752378</v>
+        <v>26.254048999999998</v>
       </c>
       <c r="L132">
-        <v>25.331907999999999</v>
+        <v>29.267547</v>
       </c>
       <c r="M132">
-        <v>59</v>
+        <v>251</v>
       </c>
       <c r="N132">
         <v>0</v>
@@ -8606,12 +8597,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="B133" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="C133">
         <v>2012</v>
@@ -8620,31 +8611,31 @@
         <v>0</v>
       </c>
       <c r="E133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G133">
         <v>2</v>
       </c>
       <c r="H133">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="I133">
-        <v>110821</v>
+        <v>84320987</v>
       </c>
       <c r="J133">
-        <v>298.73</v>
+        <v>22.18</v>
       </c>
       <c r="K133">
-        <v>38.995367999999999</v>
+        <v>58.752378</v>
       </c>
       <c r="L133">
-        <v>21.987712999999999</v>
+        <v>25.331907999999999</v>
       </c>
       <c r="M133">
-        <v>878</v>
+        <v>59</v>
       </c>
       <c r="N133">
         <v>0</v>
@@ -8653,45 +8644,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="B134" t="s">
-        <v>552</v>
+        <v>539</v>
       </c>
       <c r="C134">
         <v>2012</v>
       </c>
       <c r="D134">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E134">
         <v>1</v>
       </c>
       <c r="F134">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G134">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H134">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="I134">
-        <v>75149669</v>
+        <v>5425320</v>
       </c>
       <c r="J134">
-        <v>846.83</v>
+        <v>31.71</v>
       </c>
       <c r="K134">
-        <v>-2.4833829999999999</v>
+        <v>10.21167</v>
       </c>
       <c r="L134">
-        <v>117.89028500000001</v>
+        <v>38.652119999999996</v>
       </c>
       <c r="M134">
-        <v>0</v>
+        <v>2326</v>
       </c>
       <c r="N134">
         <v>0</v>
@@ -8700,45 +8691,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="B135" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="C135">
         <v>2012</v>
       </c>
       <c r="D135">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E135">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F135">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G135">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H135">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="I135">
-        <v>3180394</v>
+        <v>63350000</v>
       </c>
       <c r="J135">
-        <v>28.25</v>
+        <v>266.07</v>
       </c>
       <c r="K135">
-        <v>56.840648999999999</v>
+        <v>63.246777700000003</v>
       </c>
       <c r="L135">
-        <v>24.753765000000001</v>
+        <v>25.920916399999999</v>
       </c>
       <c r="M135">
-        <v>59</v>
+        <v>116</v>
       </c>
       <c r="N135">
         <v>0</v>
@@ -8747,59 +8738,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
       <c r="B136" t="s">
-        <v>568</v>
+        <v>542</v>
       </c>
       <c r="C136">
         <v>2012</v>
       </c>
       <c r="D136">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E136">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="F136">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="G136">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="H136">
-        <v>102</v>
+        <v>330</v>
       </c>
       <c r="I136">
-        <v>112336538</v>
+        <v>1564000</v>
       </c>
       <c r="J136">
-        <v>278.67</v>
+        <v>2773.03</v>
       </c>
       <c r="K136">
-        <v>4.569375</v>
+        <v>46.603354000000003</v>
       </c>
       <c r="L136">
-        <v>102.265682</v>
+        <v>1.888334</v>
       </c>
       <c r="M136">
-        <v>851</v>
+        <v>211</v>
       </c>
       <c r="N136">
         <v>0</v>
       </c>
       <c r="O136">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B137" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="C137">
         <v>2012</v>
@@ -8808,31 +8799,31 @@
         <v>0</v>
       </c>
       <c r="E137">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F137">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G137">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H137">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="I137">
-        <v>2736800</v>
+        <v>4497600</v>
       </c>
       <c r="J137">
-        <v>7</v>
+        <v>17.05</v>
       </c>
       <c r="K137">
-        <v>47.287961000000003</v>
+        <v>-0.89996900000000002</v>
       </c>
       <c r="L137">
-        <v>28.567094000000001</v>
+        <v>11.689970000000001</v>
       </c>
       <c r="M137">
-        <v>134</v>
+        <v>553</v>
       </c>
       <c r="N137">
         <v>0</v>
@@ -8841,45 +8832,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>250</v>
+        <v>218</v>
       </c>
       <c r="B138" t="s">
-        <v>581</v>
+        <v>543</v>
       </c>
       <c r="C138">
         <v>2012</v>
       </c>
       <c r="D138">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F138">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G138">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="H138">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="I138">
-        <v>1757540</v>
+        <v>81857000</v>
       </c>
       <c r="J138">
-        <v>92.61</v>
+        <v>14.37</v>
       </c>
       <c r="K138">
-        <v>18.221415</v>
+        <v>41.680971</v>
       </c>
       <c r="L138">
-        <v>-66.413281999999995</v>
+        <v>44.028737999999997</v>
       </c>
       <c r="M138">
-        <v>618</v>
+        <v>1798</v>
       </c>
       <c r="N138">
         <v>0</v>
@@ -8888,106 +8879,106 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
-        <v>251</v>
+        <v>219</v>
       </c>
       <c r="B139" t="s">
-        <v>582</v>
+        <v>544</v>
       </c>
       <c r="C139">
         <v>2012</v>
       </c>
       <c r="D139">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="E139">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F139">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="G139">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="H139">
-        <v>103</v>
+        <v>392</v>
       </c>
       <c r="I139">
-        <v>19042936</v>
+        <v>62262000</v>
       </c>
       <c r="J139">
-        <v>172.98</v>
+        <v>3570.56</v>
       </c>
       <c r="K139">
-        <v>25.333697999999998</v>
+        <v>51.083419999999997</v>
       </c>
       <c r="L139">
-        <v>51.229529999999997</v>
+        <v>10.423446999999999</v>
       </c>
       <c r="M139">
-        <v>43</v>
+        <v>346</v>
       </c>
       <c r="N139">
         <v>0</v>
       </c>
       <c r="O139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
-        <v>256</v>
+        <v>220</v>
       </c>
       <c r="B140" t="s">
-        <v>614</v>
+        <v>546</v>
       </c>
       <c r="C140">
         <v>2012</v>
       </c>
       <c r="D140">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="E140">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F140">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="G140">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="H140">
-        <v>47</v>
+        <v>541</v>
       </c>
       <c r="I140">
-        <v>5445324</v>
+        <v>10787690</v>
       </c>
       <c r="J140">
-        <v>239.7</v>
+        <v>2431.59</v>
       </c>
       <c r="K140">
-        <v>1.3571070000000001</v>
+        <v>54.315362</v>
       </c>
       <c r="L140">
-        <v>103.81949899999999</v>
+        <v>-1.918023</v>
       </c>
       <c r="M140">
-        <v>40</v>
+        <v>180</v>
       </c>
       <c r="N140">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O140">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>264</v>
+        <v>221</v>
       </c>
       <c r="B141" t="s">
-        <v>595</v>
+        <v>547</v>
       </c>
       <c r="C141">
         <v>2012</v>
@@ -8996,31 +8987,31 @@
         <v>0</v>
       </c>
       <c r="E141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G141">
         <v>2</v>
       </c>
       <c r="H141">
-        <v>16</v>
+        <v>104</v>
       </c>
       <c r="I141">
-        <v>7800000</v>
+        <v>110821</v>
       </c>
       <c r="J141">
-        <v>466</v>
+        <v>298.73</v>
       </c>
       <c r="K141">
-        <v>23.973936999999999</v>
+        <v>38.995367999999999</v>
       </c>
       <c r="L141">
-        <v>120.982018</v>
+        <v>21.987712999999999</v>
       </c>
       <c r="M141">
-        <v>464</v>
+        <v>878</v>
       </c>
       <c r="N141">
         <v>0</v>
@@ -9029,7 +9020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>165</v>
       </c>
@@ -9076,7 +9067,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>153</v>
       </c>
@@ -9123,7 +9114,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>151</v>
       </c>
@@ -9170,7 +9161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>169</v>
       </c>
@@ -9217,7 +9208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -9264,7 +9255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>179</v>
       </c>
@@ -9311,7 +9302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -9358,7 +9349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -9405,7 +9396,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -9452,7 +9443,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -9499,7 +9490,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -9546,7 +9537,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>37</v>
       </c>
@@ -9593,7 +9584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>39</v>
       </c>
@@ -9640,7 +9631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -9687,7 +9678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>58</v>
       </c>
@@ -9734,7 +9725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>61</v>
       </c>
@@ -9781,7 +9772,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>64</v>
       </c>
@@ -9828,7 +9819,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>67</v>
       </c>
@@ -9875,7 +9866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>75</v>
       </c>
@@ -9922,7 +9913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>95</v>
       </c>
@@ -9969,7 +9960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>96</v>
       </c>
@@ -10016,7 +10007,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>439</v>
       </c>
@@ -10063,7 +10054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>440</v>
       </c>
@@ -10110,7 +10101,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>441</v>
       </c>
@@ -10157,7 +10148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>457</v>
       </c>
@@ -10204,7 +10195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>479</v>
       </c>
@@ -10251,7 +10242,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>488</v>
       </c>
@@ -10298,7 +10289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>505</v>
       </c>
@@ -10345,7 +10336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>513</v>
       </c>
@@ -10392,7 +10383,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>368</v>
       </c>
@@ -10439,7 +10430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>373</v>
       </c>
@@ -10486,7 +10477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>383</v>
       </c>
@@ -10533,7 +10524,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>403</v>
       </c>
@@ -10580,7 +10571,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>406</v>
       </c>
@@ -10627,7 +10618,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>414</v>
       </c>
@@ -10674,7 +10665,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>434</v>
       </c>
@@ -10721,7 +10712,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>281</v>
       </c>
@@ -10768,7 +10759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>292</v>
       </c>
@@ -10815,7 +10806,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>307</v>
       </c>
@@ -10862,7 +10853,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>310</v>
       </c>
@@ -10909,7 +10900,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>313</v>
       </c>
@@ -10956,7 +10947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>320</v>
       </c>
@@ -11003,7 +10994,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>321</v>
       </c>
@@ -11050,7 +11041,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>340</v>
       </c>
@@ -11097,45 +11088,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="B186" t="s">
-        <v>515</v>
+        <v>548</v>
       </c>
       <c r="C186">
         <v>2012</v>
       </c>
       <c r="D186">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E186">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F186">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G186">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H186">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="I186">
-        <v>3275700</v>
+        <v>14713763</v>
       </c>
       <c r="J186">
-        <v>10.25</v>
+        <v>0.82</v>
       </c>
       <c r="K186">
-        <v>40.769627200000002</v>
+        <v>12.136037</v>
       </c>
       <c r="L186">
-        <v>44.673664600000002</v>
+        <v>-61.690404000000001</v>
       </c>
       <c r="M186">
-        <v>2359</v>
+        <v>414</v>
       </c>
       <c r="N186">
         <v>0</v>
@@ -11144,12 +11135,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
-        <v>198</v>
+        <v>223</v>
       </c>
       <c r="B187" t="s">
-        <v>522</v>
+        <v>610</v>
       </c>
       <c r="C187">
         <v>2012</v>
@@ -11161,28 +11152,28 @@
         <v>1</v>
       </c>
       <c r="F187">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G187">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H187">
-        <v>115</v>
+        <v>19</v>
       </c>
       <c r="I187">
-        <v>10839905</v>
+        <v>7103700</v>
       </c>
       <c r="J187">
-        <v>511.53</v>
+        <v>46.9</v>
       </c>
       <c r="K187">
-        <v>50.6402809</v>
+        <v>15.635609000000001</v>
       </c>
       <c r="L187">
-        <v>4.6667145000000003</v>
+        <v>-89.898809</v>
       </c>
       <c r="M187">
-        <v>144</v>
+        <v>1016</v>
       </c>
       <c r="N187">
         <v>0</v>
@@ -11191,12 +11182,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
-        <v>215</v>
+        <v>224</v>
       </c>
       <c r="B188" t="s">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="C188">
         <v>2012</v>
@@ -11205,31 +11196,31 @@
         <v>0</v>
       </c>
       <c r="E188">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F188">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G188">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H188">
-        <v>330</v>
+        <v>42</v>
       </c>
       <c r="I188">
-        <v>63350000</v>
+        <v>9957731</v>
       </c>
       <c r="J188">
-        <v>266.07</v>
+        <v>243.67</v>
       </c>
       <c r="K188">
-        <v>63.246777700000003</v>
+        <v>22.279328</v>
       </c>
       <c r="L188">
-        <v>25.920916399999999</v>
+        <v>114.162813</v>
       </c>
       <c r="M188">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="N188">
         <v>0</v>
@@ -11238,92 +11229,92 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>266</v>
+        <v>225</v>
       </c>
       <c r="B189" t="s">
-        <v>596</v>
+        <v>550</v>
       </c>
       <c r="C189">
         <v>2012</v>
       </c>
       <c r="D189">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E189">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F189">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G189">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="H189">
-        <v>30</v>
+        <v>157</v>
       </c>
       <c r="I189">
-        <v>1317714</v>
+        <v>1210193422</v>
       </c>
       <c r="J189">
-        <v>345.65</v>
+        <v>140.03</v>
       </c>
       <c r="K189">
-        <v>14.897192</v>
+        <v>47.181759</v>
       </c>
       <c r="L189">
-        <v>100.83273</v>
+        <v>19.506094000000001</v>
       </c>
       <c r="M189">
-        <v>92</v>
+        <v>134</v>
       </c>
       <c r="N189">
         <v>0</v>
       </c>
       <c r="O189">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
-        <v>268</v>
+        <v>226</v>
       </c>
       <c r="B190" t="s">
-        <v>597</v>
+        <v>551</v>
       </c>
       <c r="C190">
         <v>2012</v>
       </c>
       <c r="D190">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E190">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F190">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G190">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="H190">
-        <v>114</v>
+        <v>83</v>
       </c>
       <c r="I190">
-        <v>74724269</v>
+        <v>237641326</v>
       </c>
       <c r="J190">
-        <v>45.86</v>
+        <v>1847.98</v>
       </c>
       <c r="K190">
-        <v>33.843941000000001</v>
+        <v>22.351115</v>
       </c>
       <c r="L190">
-        <v>9.4001380000000001</v>
+        <v>78.667743000000002</v>
       </c>
       <c r="M190">
-        <v>40</v>
+        <v>1015</v>
       </c>
       <c r="N190">
         <v>0</v>
@@ -11332,7 +11323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>168</v>
       </c>
@@ -11379,7 +11370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>177</v>
       </c>
@@ -11426,7 +11417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>149</v>
       </c>
@@ -11473,7 +11464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>645</v>
       </c>
@@ -11520,7 +11511,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>178</v>
       </c>
@@ -11567,7 +11558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>164</v>
       </c>
@@ -11614,7 +11605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>13</v>
       </c>
@@ -11661,7 +11652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>35</v>
       </c>
@@ -11708,7 +11699,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>63</v>
       </c>
@@ -11755,7 +11746,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>81</v>
       </c>
@@ -11802,7 +11793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>83</v>
       </c>
@@ -11849,7 +11840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>88</v>
       </c>
@@ -11896,7 +11887,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>436</v>
       </c>
@@ -11943,7 +11934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>459</v>
       </c>
@@ -11990,7 +11981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>469</v>
       </c>
@@ -12037,7 +12028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>487</v>
       </c>
@@ -12084,7 +12075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>489</v>
       </c>
@@ -12131,7 +12122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>511</v>
       </c>
@@ -12178,7 +12169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>387</v>
       </c>
@@ -12225,7 +12216,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>394</v>
       </c>
@@ -12272,7 +12263,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>402</v>
       </c>
@@ -12319,7 +12310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>404</v>
       </c>
@@ -12366,7 +12357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>419</v>
       </c>
@@ -12413,7 +12404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>302</v>
       </c>
@@ -12460,7 +12451,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>325</v>
       </c>
@@ -12507,7 +12498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>327</v>
       </c>
@@ -12554,7 +12545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>644</v>
       </c>
@@ -12601,7 +12592,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>358</v>
       </c>
@@ -12648,7 +12639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>361</v>
       </c>
@@ -12695,45 +12686,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="B220" t="s">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="C220">
         <v>2012</v>
       </c>
       <c r="D220">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E220">
         <v>1</v>
       </c>
       <c r="F220">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G220">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H220">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="I220">
-        <v>40117096</v>
+        <v>75149669</v>
       </c>
       <c r="J220">
-        <v>445.99</v>
+        <v>846.83</v>
       </c>
       <c r="K220">
-        <v>-34.996496299999997</v>
+        <v>-2.4833829999999999</v>
       </c>
       <c r="L220">
-        <v>-64.967281700000001</v>
+        <v>117.89028500000001</v>
       </c>
       <c r="M220">
-        <v>270</v>
+        <v>0</v>
       </c>
       <c r="N220">
         <v>0</v>
@@ -12742,59 +12733,59 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="B221" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="C221">
         <v>2012</v>
       </c>
       <c r="D221">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E221">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G221">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H221">
-        <v>218</v>
+        <v>53</v>
       </c>
       <c r="I221">
-        <v>38538447</v>
+        <v>4588252</v>
       </c>
       <c r="J221">
-        <v>485.8</v>
+        <v>86.53</v>
       </c>
       <c r="K221">
-        <v>60.500020999999997</v>
+        <v>32.647531000000001</v>
       </c>
       <c r="L221">
-        <v>9.0999719999999993</v>
+        <v>54.564352</v>
       </c>
       <c r="M221">
-        <v>892</v>
+        <v>1327</v>
       </c>
       <c r="N221">
         <v>0</v>
       </c>
       <c r="O221">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>255</v>
+        <v>229</v>
       </c>
       <c r="B222" t="s">
-        <v>586</v>
+        <v>554</v>
       </c>
       <c r="C222">
         <v>2012</v>
@@ -12806,28 +12797,28 @@
         <v>1</v>
       </c>
       <c r="F222">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G222">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H222">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I222">
-        <v>5312400</v>
+        <v>60849247</v>
       </c>
       <c r="J222">
-        <v>45.04</v>
+        <v>217.28</v>
       </c>
       <c r="K222">
-        <v>44.153412000000003</v>
+        <v>52.865195999999997</v>
       </c>
       <c r="L222">
-        <v>20.551439999999999</v>
+        <v>-7.9794600000000004</v>
       </c>
       <c r="M222">
-        <v>770</v>
+        <v>158</v>
       </c>
       <c r="N222">
         <v>0</v>
@@ -12836,242 +12827,242 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
       <c r="B223" t="s">
-        <v>587</v>
+        <v>556</v>
       </c>
       <c r="C223">
         <v>2012</v>
       </c>
       <c r="D223">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E223">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="F223">
+        <v>11</v>
+      </c>
+      <c r="G223">
+        <v>28</v>
+      </c>
+      <c r="H223">
+        <v>285</v>
+      </c>
+      <c r="I223">
+        <v>3709300</v>
+      </c>
+      <c r="J223">
+        <v>2194.75</v>
+      </c>
+      <c r="K223">
+        <v>42.638426000000003</v>
+      </c>
+      <c r="L223">
+        <v>12.674296999999999</v>
+      </c>
+      <c r="M223">
+        <v>813</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
         <v>3</v>
       </c>
-      <c r="G223">
-        <v>4</v>
-      </c>
-      <c r="H223">
-        <v>65</v>
-      </c>
-      <c r="I223">
-        <v>2061770</v>
-      </c>
-      <c r="J223">
-        <v>95.99</v>
-      </c>
-      <c r="K223">
-        <v>48.741152</v>
-      </c>
-      <c r="L223">
-        <v>19.452864999999999</v>
-      </c>
-      <c r="M223">
-        <v>884</v>
-      </c>
-      <c r="N223">
-        <v>0</v>
-      </c>
-      <c r="O223">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
-        <v>258</v>
+        <v>231</v>
       </c>
       <c r="B224" t="s">
-        <v>588</v>
+        <v>557</v>
       </c>
       <c r="C224">
         <v>2012</v>
       </c>
       <c r="D224">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E224">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F224">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G224">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="H224">
-        <v>125</v>
+        <v>50</v>
       </c>
       <c r="I224">
-        <v>51770560</v>
+        <v>127530000</v>
       </c>
       <c r="J224">
-        <v>49.54</v>
+        <v>15.07</v>
       </c>
       <c r="K224">
-        <v>45.813310999999999</v>
+        <v>18.185051000000001</v>
       </c>
       <c r="L224">
-        <v>14.480836999999999</v>
+        <v>-77.394768999999997</v>
       </c>
       <c r="M224">
-        <v>734</v>
+        <v>599</v>
       </c>
       <c r="N224">
         <v>0</v>
       </c>
       <c r="O224">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
-        <v>263</v>
+        <v>232</v>
       </c>
       <c r="B225" t="s">
-        <v>593</v>
+        <v>558</v>
       </c>
       <c r="C225">
         <v>2012</v>
       </c>
       <c r="D225">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E225">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="F225">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G225">
-        <v>4</v>
+        <v>38</v>
       </c>
       <c r="H225">
-        <v>44</v>
+        <v>293</v>
       </c>
       <c r="I225">
-        <v>23268372</v>
+        <v>16815000</v>
       </c>
       <c r="J225">
-        <v>635.65</v>
+        <v>5867.15</v>
       </c>
       <c r="K225">
-        <v>46.798561999999997</v>
+        <v>36.574843999999999</v>
       </c>
       <c r="L225">
-        <v>8.2319739999999992</v>
+        <v>139.239418</v>
       </c>
       <c r="M225">
-        <v>1597</v>
+        <v>1039</v>
       </c>
       <c r="N225">
         <v>0</v>
       </c>
       <c r="O225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="B226" t="s">
-        <v>616</v>
+        <v>560</v>
       </c>
       <c r="C226">
         <v>2012</v>
       </c>
       <c r="D226">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E226">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F226">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G226">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="H226">
-        <v>83</v>
+        <v>114</v>
       </c>
       <c r="I226">
-        <v>10673800</v>
+        <v>38610097</v>
       </c>
       <c r="J226">
-        <v>22.48</v>
+        <v>186.2</v>
       </c>
       <c r="K226">
-        <v>10.867785</v>
+        <v>47.228608999999999</v>
       </c>
       <c r="L226">
-        <v>-60.982106999999999</v>
+        <v>65.209320000000005</v>
       </c>
       <c r="M226">
-        <v>0</v>
+        <v>158</v>
       </c>
       <c r="N226">
         <v>0</v>
       </c>
       <c r="O226">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
-        <v>273</v>
+        <v>234</v>
       </c>
       <c r="B227" t="s">
-        <v>603</v>
+        <v>561</v>
       </c>
       <c r="C227">
         <v>2012</v>
       </c>
       <c r="D227">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E227">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F227">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G227">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="H227">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="I227">
-        <v>28946101</v>
+        <v>3582054</v>
       </c>
       <c r="J227">
-        <v>45.36</v>
+        <v>33.619999999999997</v>
       </c>
       <c r="K227">
-        <v>41.323729999999998</v>
+        <v>1.4419679999999999</v>
       </c>
       <c r="L227">
-        <v>63.952809999999999</v>
+        <v>38.431398000000002</v>
       </c>
       <c r="M227">
-        <v>306</v>
+        <v>321</v>
       </c>
       <c r="N227">
         <v>0</v>
       </c>
       <c r="O227">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>130</v>
       </c>
@@ -13118,7 +13109,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>145</v>
       </c>
@@ -13165,7 +13156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>167</v>
       </c>
@@ -13212,7 +13203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>176</v>
       </c>
@@ -13259,7 +13250,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>150</v>
       </c>
@@ -13306,7 +13297,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>140</v>
       </c>
@@ -13353,7 +13344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>148</v>
       </c>
@@ -13400,7 +13391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -13447,7 +13438,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>38</v>
       </c>
@@ -13494,7 +13485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>46</v>
       </c>
@@ -13541,7 +13532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>53</v>
       </c>
@@ -13588,7 +13579,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>54</v>
       </c>
@@ -13635,7 +13626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>68</v>
       </c>
@@ -13682,7 +13673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>70</v>
       </c>
@@ -13729,7 +13720,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>77</v>
       </c>
@@ -13776,7 +13767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>79</v>
       </c>
@@ -13823,7 +13814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>82</v>
       </c>
@@ -13870,7 +13861,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>86</v>
       </c>
@@ -13917,7 +13908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>99</v>
       </c>
@@ -13964,7 +13955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>103</v>
       </c>
@@ -14011,7 +14002,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>435</v>
       </c>
@@ -14058,7 +14049,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>444</v>
       </c>
@@ -14105,7 +14096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>480</v>
       </c>
@@ -14152,7 +14143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>484</v>
       </c>
@@ -14199,7 +14190,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>497</v>
       </c>
@@ -14246,7 +14237,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>499</v>
       </c>
@@ -14293,7 +14284,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>642</v>
       </c>
@@ -14340,7 +14331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>507</v>
       </c>
@@ -14387,7 +14378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>365</v>
       </c>
@@ -14434,7 +14425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>376</v>
       </c>
@@ -14481,7 +14472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>381</v>
       </c>
@@ -14528,7 +14519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>398</v>
       </c>
@@ -14575,7 +14566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>408</v>
       </c>
@@ -14622,7 +14613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>410</v>
       </c>
@@ -14669,7 +14660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>424</v>
       </c>
@@ -14716,7 +14707,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>643</v>
       </c>
@@ -14763,7 +14754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>432</v>
       </c>
@@ -14810,7 +14801,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>279</v>
       </c>
@@ -14857,7 +14848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -14904,7 +14895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>293</v>
       </c>
@@ -14951,7 +14942,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>322</v>
       </c>
@@ -14998,7 +14989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>331</v>
       </c>
@@ -15045,7 +15036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>343</v>
       </c>
@@ -15092,7 +15083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>348</v>
       </c>
@@ -15139,7 +15130,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>355</v>
       </c>
@@ -15186,45 +15177,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="B273" t="s">
-        <v>554</v>
+        <v>563</v>
       </c>
       <c r="C273">
         <v>2012</v>
       </c>
       <c r="D273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F273">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G273">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H273">
-        <v>285</v>
+        <v>11</v>
       </c>
       <c r="I273">
-        <v>60849247</v>
+        <v>2070371</v>
       </c>
       <c r="J273">
-        <v>217.28</v>
+        <v>176.59</v>
       </c>
       <c r="K273">
-        <v>52.865195999999997</v>
+        <v>29.273396000000002</v>
       </c>
       <c r="L273">
-        <v>-7.9794600000000004</v>
+        <v>47.497948000000001</v>
       </c>
       <c r="M273">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="N273">
         <v>0</v>
@@ -15233,45 +15224,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B274" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C274">
         <v>2012</v>
       </c>
       <c r="D274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G274">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H274">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="I274">
-        <v>29570000</v>
+        <v>3180394</v>
       </c>
       <c r="J274">
-        <v>42.73</v>
+        <v>28.25</v>
       </c>
       <c r="K274">
-        <v>55.35</v>
+        <v>56.840648999999999</v>
       </c>
       <c r="L274">
-        <v>23.75</v>
+        <v>24.753765000000001</v>
       </c>
       <c r="M274">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="N274">
         <v>0</v>
@@ -15280,45 +15271,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="B275" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="C275">
         <v>2012</v>
       </c>
       <c r="D275">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F275">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G275">
         <v>5</v>
       </c>
       <c r="H275">
-        <v>33</v>
+        <v>62</v>
       </c>
       <c r="I275">
-        <v>620029</v>
+        <v>29570000</v>
       </c>
       <c r="J275">
-        <v>8.56</v>
+        <v>42.73</v>
       </c>
       <c r="K275">
-        <v>46.825038999999997</v>
+        <v>55.35</v>
       </c>
       <c r="L275">
-        <v>103.849974</v>
+        <v>23.75</v>
       </c>
       <c r="M275">
-        <v>1801</v>
+        <v>75</v>
       </c>
       <c r="N275">
         <v>0</v>
@@ -15327,45 +15318,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="B276" t="s">
-        <v>598</v>
+        <v>568</v>
       </c>
       <c r="C276">
         <v>2012</v>
       </c>
       <c r="D276">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E276">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F276">
         <v>1</v>
       </c>
       <c r="G276">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H276">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="I276">
-        <v>34131400</v>
+        <v>112336538</v>
       </c>
       <c r="J276">
-        <v>773.09</v>
+        <v>278.67</v>
       </c>
       <c r="K276">
-        <v>38.959758999999998</v>
+        <v>4.569375</v>
       </c>
       <c r="L276">
-        <v>34.924965</v>
+        <v>102.265682</v>
       </c>
       <c r="M276">
-        <v>1283</v>
+        <v>851</v>
       </c>
       <c r="N276">
         <v>0</v>
@@ -15374,7 +15365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>162</v>
       </c>
@@ -15421,7 +15412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>163</v>
       </c>
@@ -15468,7 +15459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>29</v>
       </c>
@@ -15515,7 +15506,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>34</v>
       </c>
@@ -15562,7 +15553,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>51</v>
       </c>
@@ -15609,7 +15600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>87</v>
       </c>
@@ -15656,7 +15647,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>102</v>
       </c>
@@ -15703,7 +15694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>456</v>
       </c>
@@ -15750,7 +15741,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>461</v>
       </c>
@@ -15797,7 +15788,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>468</v>
       </c>
@@ -15844,7 +15835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>482</v>
       </c>
@@ -15891,7 +15882,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>362</v>
       </c>
@@ -15938,7 +15929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>395</v>
       </c>
@@ -15985,7 +15976,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>411</v>
       </c>
@@ -16032,7 +16023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>418</v>
       </c>
@@ -16079,7 +16070,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>420</v>
       </c>
@@ -16126,7 +16117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>278</v>
       </c>
@@ -16173,7 +16164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>282</v>
       </c>
@@ -16220,7 +16211,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>311</v>
       </c>
@@ -16267,7 +16258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>332</v>
       </c>
@@ -16314,7 +16305,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>342</v>
       </c>
@@ -16361,7 +16352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>351</v>
       </c>
@@ -16408,45 +16399,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
-        <v>206</v>
+        <v>239</v>
       </c>
       <c r="B299" t="s">
-        <v>531</v>
+        <v>569</v>
       </c>
       <c r="C299">
         <v>2012</v>
       </c>
       <c r="D299">
+        <v>1</v>
+      </c>
+      <c r="E299">
         <v>3</v>
       </c>
-      <c r="E299">
-        <v>1</v>
-      </c>
       <c r="F299">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G299">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H299">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="I299">
-        <v>11247925</v>
+        <v>3559500</v>
       </c>
       <c r="J299">
-        <v>63.85</v>
+        <v>1155.32</v>
       </c>
       <c r="K299">
-        <v>45.564344200000001</v>
+        <v>22.500049000000001</v>
       </c>
       <c r="L299">
-        <v>17.0118954</v>
+        <v>-100.00003700000001</v>
       </c>
       <c r="M299">
-        <v>117</v>
+        <v>1180</v>
       </c>
       <c r="N299">
         <v>0</v>
@@ -16455,12 +16446,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="B300" t="s">
-        <v>551</v>
+        <v>570</v>
       </c>
       <c r="C300">
         <v>2012</v>
@@ -16469,31 +16460,31 @@
         <v>0</v>
       </c>
       <c r="E300">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F300">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G300">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H300">
         <v>22</v>
       </c>
       <c r="I300">
-        <v>237641326</v>
+        <v>2736800</v>
       </c>
       <c r="J300">
-        <v>1847.98</v>
+        <v>7</v>
       </c>
       <c r="K300">
-        <v>22.351115</v>
+        <v>47.287961000000003</v>
       </c>
       <c r="L300">
-        <v>78.667743000000002</v>
+        <v>28.567094000000001</v>
       </c>
       <c r="M300">
-        <v>1015</v>
+        <v>134</v>
       </c>
       <c r="N300">
         <v>0</v>
@@ -16502,45 +16493,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="B301" t="s">
-        <v>612</v>
+        <v>571</v>
       </c>
       <c r="C301">
         <v>2012</v>
       </c>
       <c r="D301">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E301">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F301">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G301">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H301">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="I301">
-        <v>5050600</v>
+        <v>620029</v>
       </c>
       <c r="J301">
-        <v>22</v>
+        <v>8.56</v>
       </c>
       <c r="K301">
-        <v>40.373660999999998</v>
+        <v>46.825038999999997</v>
       </c>
       <c r="L301">
-        <v>127.087042</v>
+        <v>103.849974</v>
       </c>
       <c r="M301">
-        <v>1711</v>
+        <v>1801</v>
       </c>
       <c r="N301">
         <v>0</v>
@@ -16549,45 +16540,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A302" t="s">
-        <v>259</v>
+        <v>242</v>
       </c>
       <c r="B302" t="s">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="C302">
         <v>2012</v>
       </c>
       <c r="D302">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E302">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F302">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G302">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H302">
-        <v>248</v>
+        <v>33</v>
       </c>
       <c r="I302">
-        <v>50004441</v>
+        <v>32741100</v>
       </c>
       <c r="J302">
-        <v>408.24</v>
+        <v>4.55</v>
       </c>
       <c r="K302">
-        <v>-28.816624000000001</v>
+        <v>42.986885000000001</v>
       </c>
       <c r="L302">
-        <v>24.991638999999999</v>
+        <v>19.518098999999999</v>
       </c>
       <c r="M302">
-        <v>1243</v>
+        <v>937</v>
       </c>
       <c r="N302">
         <v>0</v>
@@ -16596,7 +16587,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>138</v>
       </c>
@@ -16643,7 +16634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>129</v>
       </c>
@@ -16690,7 +16681,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>139</v>
       </c>
@@ -16737,7 +16728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>25</v>
       </c>
@@ -16784,7 +16775,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>36</v>
       </c>
@@ -16831,7 +16822,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>48</v>
       </c>
@@ -16878,7 +16869,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>475</v>
       </c>
@@ -16925,7 +16916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>476</v>
       </c>
@@ -16972,7 +16963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>364</v>
       </c>
@@ -17019,7 +17010,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>384</v>
       </c>
@@ -17066,7 +17057,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>401</v>
       </c>
@@ -17113,7 +17104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>423</v>
       </c>
@@ -17160,7 +17151,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>295</v>
       </c>
@@ -17207,7 +17198,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>296</v>
       </c>
@@ -17254,7 +17245,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>301</v>
       </c>
@@ -17301,7 +17292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>304</v>
       </c>
@@ -17348,7 +17339,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>349</v>
       </c>
@@ -17395,45 +17386,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A320" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
       <c r="B320" t="s">
-        <v>539</v>
+        <v>572</v>
       </c>
       <c r="C320">
         <v>2012</v>
       </c>
       <c r="D320">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E320">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F320">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G320">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H320">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="I320">
-        <v>5425320</v>
+        <v>16765558</v>
       </c>
       <c r="J320">
-        <v>31.71</v>
+        <v>100.22</v>
       </c>
       <c r="K320">
-        <v>10.21167</v>
+        <v>31.172820999999999</v>
       </c>
       <c r="L320">
-        <v>38.652119999999996</v>
+        <v>-7.3362480000000003</v>
       </c>
       <c r="M320">
-        <v>2326</v>
+        <v>1983</v>
       </c>
       <c r="N320">
         <v>0</v>
@@ -17442,101 +17433,101 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A321" t="s">
-        <v>218</v>
+        <v>244</v>
       </c>
       <c r="B321" t="s">
-        <v>543</v>
+        <v>574</v>
       </c>
       <c r="C321">
         <v>2012</v>
       </c>
       <c r="D321">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E321">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F321">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G321">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="H321">
-        <v>392</v>
+        <v>175</v>
       </c>
       <c r="I321">
-        <v>81857000</v>
+        <v>4446900</v>
       </c>
       <c r="J321">
-        <v>14.37</v>
+        <v>836.26</v>
       </c>
       <c r="K321">
-        <v>41.680971</v>
+        <v>52.500169999999997</v>
       </c>
       <c r="L321">
-        <v>44.028737999999997</v>
+        <v>5.7480820000000001</v>
       </c>
       <c r="M321">
-        <v>1798</v>
+        <v>-2</v>
       </c>
       <c r="N321">
         <v>0</v>
       </c>
       <c r="O321">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A322" t="s">
-        <v>239</v>
+        <v>245</v>
       </c>
       <c r="B322" t="s">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="C322">
         <v>2012</v>
       </c>
       <c r="D322">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E322">
         <v>3</v>
       </c>
       <c r="F322">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G322">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="H322">
-        <v>22</v>
+        <v>184</v>
       </c>
       <c r="I322">
-        <v>3559500</v>
+        <v>24554000</v>
       </c>
       <c r="J322">
-        <v>1155.32</v>
+        <v>130.68</v>
       </c>
       <c r="K322">
-        <v>22.500049000000001</v>
+        <v>-41.500082999999997</v>
       </c>
       <c r="L322">
-        <v>-100.00003700000001</v>
+        <v>172.834408</v>
       </c>
       <c r="M322">
-        <v>1180</v>
+        <v>392</v>
       </c>
       <c r="N322">
         <v>0</v>
       </c>
       <c r="O322">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>141</v>
       </c>
@@ -17583,7 +17574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>137</v>
       </c>
@@ -17630,7 +17621,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>127</v>
       </c>
@@ -17677,7 +17668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>16</v>
       </c>
@@ -17724,7 +17715,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>17</v>
       </c>
@@ -17771,7 +17762,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>20</v>
       </c>
@@ -17818,7 +17809,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>21</v>
       </c>
@@ -17865,7 +17856,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>50</v>
       </c>
@@ -17912,7 +17903,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>52</v>
       </c>
@@ -17959,7 +17950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>455</v>
       </c>
@@ -18006,7 +17997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>458</v>
       </c>
@@ -18053,7 +18044,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>379</v>
       </c>
@@ -18100,7 +18091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>400</v>
       </c>
@@ -18147,7 +18138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>426</v>
       </c>
@@ -18194,45 +18185,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A337" t="s">
-        <v>205</v>
+        <v>246</v>
       </c>
       <c r="B337" t="s">
-        <v>530</v>
+        <v>612</v>
       </c>
       <c r="C337">
         <v>2012</v>
       </c>
       <c r="D337">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E337">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F337">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G337">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H337">
-        <v>108</v>
+        <v>51</v>
       </c>
       <c r="I337">
-        <v>4290612</v>
+        <v>5050600</v>
       </c>
       <c r="J337">
-        <v>331.65</v>
+        <v>22</v>
       </c>
       <c r="K337">
-        <v>2.8894434000000002</v>
+        <v>40.373660999999998</v>
       </c>
       <c r="L337">
-        <v>-73.783891999999994</v>
+        <v>127.087042</v>
       </c>
       <c r="M337">
-        <v>255</v>
+        <v>1711</v>
       </c>
       <c r="N337">
         <v>0</v>
@@ -18241,45 +18232,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A338" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="B338" t="s">
-        <v>592</v>
+        <v>577</v>
       </c>
       <c r="C338">
         <v>2012</v>
       </c>
       <c r="D338">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
         <v>4</v>
       </c>
-      <c r="F338">
-        <v>3</v>
-      </c>
-      <c r="G338">
-        <v>8</v>
-      </c>
       <c r="H338">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="I338">
-        <v>8000001</v>
+        <v>38538447</v>
       </c>
       <c r="J338">
-        <v>538.13</v>
+        <v>485.8</v>
       </c>
       <c r="K338">
-        <v>59.674970999999999</v>
+        <v>60.500020999999997</v>
       </c>
       <c r="L338">
-        <v>14.520856</v>
+        <v>9.0999719999999993</v>
       </c>
       <c r="M338">
-        <v>187</v>
+        <v>892</v>
       </c>
       <c r="N338">
         <v>0</v>
@@ -18288,7 +18279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>126</v>
       </c>
@@ -18335,7 +18326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>147</v>
       </c>
@@ -18382,7 +18373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>128</v>
       </c>
@@ -18429,7 +18420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>135</v>
       </c>
@@ -18476,7 +18467,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>144</v>
       </c>
@@ -18523,7 +18514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>30</v>
       </c>
@@ -18570,7 +18561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>42</v>
       </c>
@@ -18617,7 +18608,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>59</v>
       </c>
@@ -18664,7 +18655,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>76</v>
       </c>
@@ -18711,7 +18702,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>473</v>
       </c>
@@ -18758,7 +18749,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>504</v>
       </c>
@@ -18805,7 +18796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -18852,7 +18843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>318</v>
       </c>
@@ -18899,7 +18890,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>330</v>
       </c>
@@ -18946,7 +18937,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>333</v>
       </c>
@@ -18993,7 +18984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>337</v>
       </c>
@@ -19040,12 +19031,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A355" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="B355" t="s">
-        <v>534</v>
+        <v>579</v>
       </c>
       <c r="C355">
         <v>2012</v>
@@ -19054,31 +19045,31 @@
         <v>2</v>
       </c>
       <c r="E355">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F355">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G355">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H355">
-        <v>35</v>
+        <v>218</v>
       </c>
       <c r="I355">
-        <v>9445281</v>
+        <v>10561614</v>
       </c>
       <c r="J355">
-        <v>332.68</v>
+        <v>514.5</v>
       </c>
       <c r="K355">
-        <v>55.670248999999998</v>
+        <v>52.215933</v>
       </c>
       <c r="L355">
-        <v>10.333328</v>
+        <v>19.134422000000001</v>
       </c>
       <c r="M355">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="N355">
         <v>0</v>
@@ -19087,45 +19078,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A356" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="B356" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="C356">
         <v>2012</v>
       </c>
       <c r="D356">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E356">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F356">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G356">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="H356">
-        <v>436</v>
+        <v>77</v>
       </c>
       <c r="I356">
-        <v>143300000</v>
+        <v>3706690</v>
       </c>
       <c r="J356">
-        <v>179.79</v>
+        <v>237.52</v>
       </c>
       <c r="K356">
-        <v>45.985213000000002</v>
+        <v>40.033262999999998</v>
       </c>
       <c r="L356">
-        <v>24.685922999999999</v>
+        <v>-7.8896259999999998</v>
       </c>
       <c r="M356">
-        <v>496</v>
+        <v>417</v>
       </c>
       <c r="N356">
         <v>0</v>
@@ -19134,7 +19125,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>143</v>
       </c>
@@ -19181,7 +19172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>56</v>
       </c>
@@ -19228,7 +19219,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>85</v>
       </c>
@@ -19275,7 +19266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>91</v>
       </c>
@@ -19322,7 +19313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>490</v>
       </c>
@@ -19369,7 +19360,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>369</v>
       </c>
@@ -19416,7 +19407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>413</v>
       </c>
@@ -19463,7 +19454,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>308</v>
       </c>
@@ -19510,45 +19501,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A365" t="s">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="B365" t="s">
-        <v>518</v>
+        <v>581</v>
       </c>
       <c r="C365">
         <v>2012</v>
       </c>
       <c r="D365">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E365">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F365">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="G365">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H365">
-        <v>53</v>
+        <v>25</v>
       </c>
       <c r="I365">
-        <v>9235100</v>
+        <v>1757540</v>
       </c>
       <c r="J365">
-        <v>63.4</v>
+        <v>92.61</v>
       </c>
       <c r="K365">
-        <v>40.393629400000002</v>
+        <v>18.221415</v>
       </c>
       <c r="L365">
-        <v>47.787250800000002</v>
+        <v>-66.413281999999995</v>
       </c>
       <c r="M365">
-        <v>0</v>
+        <v>618</v>
       </c>
       <c r="N365">
         <v>0</v>
@@ -19557,45 +19548,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A366" t="s">
-        <v>209</v>
+        <v>251</v>
       </c>
       <c r="B366" t="s">
-        <v>533</v>
+        <v>582</v>
       </c>
       <c r="C366">
         <v>2012</v>
       </c>
       <c r="D366">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E366">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F366">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G366">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H366">
-        <v>113</v>
+        <v>12</v>
       </c>
       <c r="I366">
-        <v>5587085</v>
+        <v>19042936</v>
       </c>
       <c r="J366">
-        <v>215.22</v>
+        <v>172.98</v>
       </c>
       <c r="K366">
-        <v>50.425168800000002</v>
+        <v>25.333697999999998</v>
       </c>
       <c r="L366">
-        <v>14.256743999999999</v>
+        <v>51.229529999999997</v>
       </c>
       <c r="M366">
-        <v>384</v>
+        <v>43</v>
       </c>
       <c r="N366">
         <v>0</v>
@@ -19604,12 +19595,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A367" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B367" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="C367">
         <v>2012</v>
@@ -19618,31 +19609,31 @@
         <v>2</v>
       </c>
       <c r="E367">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F367">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G367">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="H367">
-        <v>77</v>
+        <v>103</v>
       </c>
       <c r="I367">
-        <v>10561614</v>
+        <v>143300000</v>
       </c>
       <c r="J367">
-        <v>514.5</v>
+        <v>179.79</v>
       </c>
       <c r="K367">
-        <v>52.215933</v>
+        <v>45.985213000000002</v>
       </c>
       <c r="L367">
-        <v>19.134422000000001</v>
+        <v>24.685922999999999</v>
       </c>
       <c r="M367">
-        <v>118</v>
+        <v>496</v>
       </c>
       <c r="N367">
         <v>0</v>
@@ -19651,7 +19642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>120</v>
       </c>
@@ -19698,7 +19689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>146</v>
       </c>
@@ -19745,7 +19736,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>133</v>
       </c>
@@ -19792,7 +19783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>60</v>
       </c>
@@ -19839,7 +19830,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>501</v>
       </c>
@@ -19886,7 +19877,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>428</v>
       </c>
@@ -19933,7 +19924,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>316</v>
       </c>
@@ -19980,7 +19971,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>335</v>
       </c>
@@ -20027,54 +20018,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A376" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="B376" t="s">
-        <v>561</v>
+        <v>613</v>
       </c>
       <c r="C376">
         <v>2012</v>
       </c>
       <c r="D376">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="E376">
+        <v>25</v>
+      </c>
+      <c r="F376">
+        <v>33</v>
+      </c>
+      <c r="G376">
+        <v>82</v>
+      </c>
+      <c r="H376">
+        <v>436</v>
+      </c>
+      <c r="I376">
+        <v>28376355</v>
+      </c>
+      <c r="J376">
+        <v>1857.77</v>
+      </c>
+      <c r="K376">
+        <v>64.686313999999996</v>
+      </c>
+      <c r="L376">
+        <v>97.745305999999999</v>
+      </c>
+      <c r="M376">
+        <v>599</v>
+      </c>
+      <c r="N376">
+        <v>0</v>
+      </c>
+      <c r="O376">
         <v>4</v>
       </c>
-      <c r="F376">
-        <v>5</v>
-      </c>
-      <c r="G376">
-        <v>11</v>
-      </c>
-      <c r="H376">
-        <v>11</v>
-      </c>
-      <c r="I376">
-        <v>3582054</v>
-      </c>
-      <c r="J376">
-        <v>33.619999999999997</v>
-      </c>
-      <c r="K376">
-        <v>1.4419679999999999</v>
-      </c>
-      <c r="L376">
-        <v>38.431398000000002</v>
-      </c>
-      <c r="M376">
-        <v>321</v>
-      </c>
-      <c r="N376">
-        <v>0</v>
-      </c>
-      <c r="O376">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>121</v>
       </c>
@@ -20121,7 +20112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>119</v>
       </c>
@@ -20168,7 +20159,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>136</v>
       </c>
@@ -20215,7 +20206,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>132</v>
       </c>
@@ -20262,7 +20253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>134</v>
       </c>
@@ -20309,7 +20300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>32</v>
       </c>
@@ -20356,7 +20347,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>33</v>
       </c>
@@ -20403,7 +20394,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>445</v>
       </c>
@@ -20450,7 +20441,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>503</v>
       </c>
@@ -20497,7 +20488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>370</v>
       </c>
@@ -20544,7 +20535,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>372</v>
       </c>
@@ -20591,101 +20582,101 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A388" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="B388" t="s">
-        <v>553</v>
+        <v>585</v>
       </c>
       <c r="C388">
         <v>2012</v>
       </c>
       <c r="D388">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E388">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F388">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G388">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="H388">
-        <v>66</v>
+        <v>19</v>
       </c>
       <c r="I388">
-        <v>4588252</v>
+        <v>7120666</v>
       </c>
       <c r="J388">
-        <v>86.53</v>
+        <v>576.82000000000005</v>
       </c>
       <c r="K388">
-        <v>32.647531000000001</v>
+        <v>25.624262000000002</v>
       </c>
       <c r="L388">
-        <v>54.564352</v>
+        <v>42.352832999999997</v>
       </c>
       <c r="M388">
-        <v>1327</v>
+        <v>792</v>
       </c>
       <c r="N388">
         <v>0</v>
       </c>
       <c r="O388">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A389" t="s">
-        <v>231</v>
+        <v>255</v>
       </c>
       <c r="B389" t="s">
-        <v>557</v>
+        <v>586</v>
       </c>
       <c r="C389">
         <v>2012</v>
       </c>
       <c r="D389">
+        <v>1</v>
+      </c>
+      <c r="E389">
+        <v>1</v>
+      </c>
+      <c r="F389">
+        <v>2</v>
+      </c>
+      <c r="G389">
         <v>4</v>
       </c>
-      <c r="E389">
-        <v>4</v>
-      </c>
-      <c r="F389">
-        <v>4</v>
-      </c>
-      <c r="G389">
-        <v>12</v>
-      </c>
       <c r="H389">
-        <v>293</v>
+        <v>116</v>
       </c>
       <c r="I389">
-        <v>127530000</v>
+        <v>5312400</v>
       </c>
       <c r="J389">
-        <v>15.07</v>
+        <v>45.04</v>
       </c>
       <c r="K389">
-        <v>18.185051000000001</v>
+        <v>44.153412000000003</v>
       </c>
       <c r="L389">
-        <v>-77.394768999999997</v>
+        <v>20.551439999999999</v>
       </c>
       <c r="M389">
-        <v>599</v>
+        <v>770</v>
       </c>
       <c r="N389">
         <v>0</v>
       </c>
       <c r="O389">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>94</v>
       </c>
@@ -20732,7 +20723,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>446</v>
       </c>
@@ -20779,7 +20770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>464</v>
       </c>
@@ -20826,7 +20817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>367</v>
       </c>
@@ -20873,148 +20864,148 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>197</v>
+        <v>256</v>
       </c>
       <c r="B394" t="s">
-        <v>521</v>
+        <v>614</v>
       </c>
       <c r="C394">
         <v>2012</v>
       </c>
       <c r="D394">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E394">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F394">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G394">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H394">
-        <v>165</v>
+        <v>23</v>
       </c>
       <c r="I394">
-        <v>9460000</v>
+        <v>5445324</v>
       </c>
       <c r="J394">
-        <v>55.14</v>
+        <v>239.7</v>
       </c>
       <c r="K394">
-        <v>53.425060500000001</v>
+        <v>1.3571070000000001</v>
       </c>
       <c r="L394">
-        <v>27.697135800000002</v>
+        <v>103.81949899999999</v>
       </c>
       <c r="M394">
-        <v>174</v>
+        <v>40</v>
       </c>
       <c r="N394">
         <v>0</v>
       </c>
       <c r="O394">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A395" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="B395" t="s">
-        <v>560</v>
+        <v>587</v>
       </c>
       <c r="C395">
         <v>2012</v>
       </c>
       <c r="D395">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="E395">
         <v>1</v>
       </c>
       <c r="F395">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G395">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H395">
         <v>47</v>
       </c>
       <c r="I395">
-        <v>38610097</v>
+        <v>2061770</v>
       </c>
       <c r="J395">
-        <v>186.2</v>
+        <v>95.99</v>
       </c>
       <c r="K395">
-        <v>47.228608999999999</v>
+        <v>48.741152</v>
       </c>
       <c r="L395">
-        <v>65.209320000000005</v>
+        <v>19.452864999999999</v>
       </c>
       <c r="M395">
-        <v>158</v>
+        <v>884</v>
       </c>
       <c r="N395">
         <v>0</v>
       </c>
       <c r="O395">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A396" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
       <c r="B396" t="s">
-        <v>575</v>
+        <v>588</v>
       </c>
       <c r="C396">
         <v>2012</v>
       </c>
       <c r="D396">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E396">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F396">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G396">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="H396">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="I396">
-        <v>24554000</v>
+        <v>51770560</v>
       </c>
       <c r="J396">
-        <v>130.68</v>
+        <v>49.54</v>
       </c>
       <c r="K396">
-        <v>-41.500082999999997</v>
+        <v>45.813310999999999</v>
       </c>
       <c r="L396">
-        <v>172.834408</v>
+        <v>14.480836999999999</v>
       </c>
       <c r="M396">
-        <v>392</v>
+        <v>734</v>
       </c>
       <c r="N396">
         <v>0</v>
       </c>
       <c r="O396">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>118</v>
       </c>
@@ -21061,7 +21052,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>124</v>
       </c>
@@ -21108,7 +21099,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>92</v>
       </c>
@@ -21155,7 +21146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>97</v>
       </c>
@@ -21202,7 +21193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>448</v>
       </c>
@@ -21249,7 +21240,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>491</v>
       </c>
@@ -21296,7 +21287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>284</v>
       </c>
@@ -21343,54 +21334,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A404" t="s">
-        <v>207</v>
+        <v>259</v>
       </c>
       <c r="B404" t="s">
-        <v>532</v>
+        <v>589</v>
       </c>
       <c r="C404">
         <v>2012</v>
       </c>
       <c r="D404">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E404">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F404">
+        <v>1</v>
+      </c>
+      <c r="G404">
         <v>6</v>
       </c>
-      <c r="G404">
-        <v>14</v>
-      </c>
       <c r="H404">
-        <v>13</v>
+        <v>125</v>
       </c>
       <c r="I404">
-        <v>838897</v>
+        <v>50004441</v>
       </c>
       <c r="J404">
-        <v>60.81</v>
+        <v>408.24</v>
       </c>
       <c r="K404">
-        <v>23.013133799999999</v>
+        <v>-28.816624000000001</v>
       </c>
       <c r="L404">
-        <v>-80.832874799999999</v>
+        <v>24.991638999999999</v>
       </c>
       <c r="M404">
-        <v>16</v>
+        <v>1243</v>
       </c>
       <c r="N404">
         <v>0</v>
       </c>
       <c r="O404">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>78</v>
       </c>
@@ -21437,7 +21428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>131</v>
       </c>
@@ -21484,7 +21475,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>115</v>
       </c>
@@ -21531,7 +21522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>31</v>
       </c>
@@ -21578,7 +21569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>390</v>
       </c>
@@ -21625,7 +21616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>319</v>
       </c>
@@ -21672,7 +21663,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>329</v>
       </c>
@@ -21719,7 +21710,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>443</v>
       </c>
@@ -21766,7 +21757,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>465</v>
       </c>
@@ -21813,7 +21804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>392</v>
       </c>
@@ -21860,7 +21851,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>286</v>
       </c>
@@ -21907,92 +21898,92 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A416" t="s">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="B416" t="s">
-        <v>525</v>
+        <v>590</v>
       </c>
       <c r="C416">
         <v>2012</v>
       </c>
       <c r="D416">
+        <v>13</v>
+      </c>
+      <c r="E416">
+        <v>8</v>
+      </c>
+      <c r="F416">
+        <v>7</v>
+      </c>
+      <c r="G416">
+        <v>28</v>
+      </c>
+      <c r="H416">
+        <v>248</v>
+      </c>
+      <c r="I416">
+        <v>46163116</v>
+      </c>
+      <c r="J416">
+        <v>1116.25</v>
+      </c>
+      <c r="K416">
+        <v>36.638392000000003</v>
+      </c>
+      <c r="L416">
+        <v>127.696119</v>
+      </c>
+      <c r="M416">
+        <v>336</v>
+      </c>
+      <c r="N416">
+        <v>0</v>
+      </c>
+      <c r="O416">
         <v>3</v>
       </c>
-      <c r="E416">
-        <v>5</v>
-      </c>
-      <c r="F416">
-        <v>9</v>
-      </c>
-      <c r="G416">
-        <v>17</v>
-      </c>
-      <c r="H416">
-        <v>258</v>
-      </c>
-      <c r="I416">
-        <v>193946886</v>
-      </c>
-      <c r="J416">
-        <v>2476.65</v>
-      </c>
-      <c r="K416">
-        <v>-10.333333</v>
-      </c>
-      <c r="L416">
-        <v>-53.2</v>
-      </c>
-      <c r="M416">
-        <v>305</v>
-      </c>
-      <c r="N416">
-        <v>0</v>
-      </c>
-      <c r="O416">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="417" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A417" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="B417" t="s">
-        <v>550</v>
+        <v>591</v>
       </c>
       <c r="C417">
         <v>2012</v>
       </c>
       <c r="D417">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E417">
+        <v>10</v>
+      </c>
+      <c r="F417">
         <v>4</v>
-      </c>
-      <c r="F417">
-        <v>5</v>
       </c>
       <c r="G417">
         <v>17</v>
       </c>
       <c r="H417">
-        <v>83</v>
+        <v>282</v>
       </c>
       <c r="I417">
-        <v>1210193422</v>
+        <v>9540065</v>
       </c>
       <c r="J417">
-        <v>140.03</v>
+        <v>1490.81</v>
       </c>
       <c r="K417">
-        <v>47.181759</v>
+        <v>39.326068999999997</v>
       </c>
       <c r="L417">
-        <v>19.506094000000001</v>
+        <v>-4.8379789999999998</v>
       </c>
       <c r="M417">
-        <v>134</v>
+        <v>465</v>
       </c>
       <c r="N417">
         <v>0</v>
@@ -22001,54 +21992,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A418" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B418" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="C418">
         <v>2012</v>
       </c>
       <c r="D418">
+        <v>1</v>
+      </c>
+      <c r="E418">
+        <v>4</v>
+      </c>
+      <c r="F418">
         <v>3</v>
       </c>
-      <c r="E418">
-        <v>10</v>
-      </c>
-      <c r="F418">
-        <v>4</v>
-      </c>
       <c r="G418">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="H418">
         <v>134</v>
       </c>
       <c r="I418">
-        <v>9540065</v>
+        <v>8000001</v>
       </c>
       <c r="J418">
-        <v>1490.81</v>
+        <v>538.13</v>
       </c>
       <c r="K418">
-        <v>39.326068999999997</v>
+        <v>59.674970999999999</v>
       </c>
       <c r="L418">
-        <v>-4.8379789999999998</v>
+        <v>14.520856</v>
       </c>
       <c r="M418">
-        <v>465</v>
+        <v>187</v>
       </c>
       <c r="N418">
         <v>0</v>
       </c>
       <c r="O418">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>117</v>
       </c>
@@ -22095,7 +22086,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>90</v>
       </c>
@@ -22142,7 +22133,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>474</v>
       </c>
@@ -22189,54 +22180,54 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A422" t="s">
-        <v>203</v>
+        <v>263</v>
       </c>
       <c r="B422" t="s">
-        <v>528</v>
+        <v>593</v>
       </c>
       <c r="C422">
         <v>2012</v>
       </c>
       <c r="D422">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E422">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F422">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G422">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="H422">
-        <v>396</v>
+        <v>102</v>
       </c>
       <c r="I422">
-        <v>1347350000</v>
+        <v>23268372</v>
       </c>
       <c r="J422">
-        <v>1736.05</v>
+        <v>635.65</v>
       </c>
       <c r="K422">
-        <v>61.066692199999999</v>
+        <v>46.798561999999997</v>
       </c>
       <c r="L422">
-        <v>-107.99170700000001</v>
+        <v>8.2319739999999992</v>
       </c>
       <c r="M422">
-        <v>431</v>
+        <v>1597</v>
       </c>
       <c r="N422">
         <v>0</v>
       </c>
       <c r="O422">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>142</v>
       </c>
@@ -22283,7 +22274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>125</v>
       </c>
@@ -22330,7 +22321,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>122</v>
       </c>
@@ -22377,7 +22368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>415</v>
       </c>
@@ -22424,7 +22415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>346</v>
       </c>
@@ -22471,7 +22462,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>113</v>
       </c>
@@ -22518,7 +22509,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>116</v>
       </c>
@@ -22565,7 +22556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>114</v>
       </c>
@@ -22612,7 +22603,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>100</v>
       </c>
@@ -22659,7 +22650,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>422</v>
       </c>
@@ -22706,7 +22697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>289</v>
       </c>
@@ -22753,101 +22744,101 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A434" t="s">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="B434" t="s">
-        <v>574</v>
+        <v>595</v>
       </c>
       <c r="C434">
         <v>2012</v>
       </c>
       <c r="D434">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E434">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F434">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="G434">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="H434">
-        <v>184</v>
+        <v>44</v>
       </c>
       <c r="I434">
-        <v>4446900</v>
+        <v>7800000</v>
       </c>
       <c r="J434">
-        <v>836.26</v>
+        <v>466</v>
       </c>
       <c r="K434">
-        <v>52.500169999999997</v>
+        <v>23.973936999999999</v>
       </c>
       <c r="L434">
-        <v>5.7480820000000001</v>
+        <v>120.982018</v>
       </c>
       <c r="M434">
-        <v>-2</v>
+        <v>464</v>
       </c>
       <c r="N434">
         <v>0</v>
       </c>
       <c r="O434">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="435" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A435" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B435" t="s">
-        <v>601</v>
+        <v>615</v>
       </c>
       <c r="C435">
         <v>2012</v>
       </c>
       <c r="D435">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="E435">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F435">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="G435">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="H435">
-        <v>530</v>
+        <v>16</v>
       </c>
       <c r="I435">
-        <v>314838000</v>
+        <v>65479453</v>
       </c>
       <c r="J435">
-        <v>165.25</v>
+        <v>6.52</v>
       </c>
       <c r="K435">
-        <v>49.487197000000002</v>
+        <v>38.628172999999997</v>
       </c>
       <c r="L435">
-        <v>31.271832</v>
+        <v>70.815653999999995</v>
       </c>
       <c r="M435">
-        <v>161</v>
+        <v>3336</v>
       </c>
       <c r="N435">
         <v>0</v>
       </c>
       <c r="O435">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>49</v>
       </c>
@@ -22894,7 +22885,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>74</v>
       </c>
@@ -22941,7 +22932,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>89</v>
       </c>
@@ -22988,7 +22979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>111</v>
       </c>
@@ -23035,7 +23026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>24</v>
       </c>
@@ -23082,7 +23073,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>407</v>
       </c>
@@ -23129,7 +23120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>429</v>
       </c>
@@ -23176,7 +23167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>356</v>
       </c>
@@ -23223,7 +23214,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>123</v>
       </c>
@@ -23270,7 +23261,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>508</v>
       </c>
@@ -23317,7 +23308,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>27</v>
       </c>
@@ -23364,7 +23355,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>486</v>
       </c>
@@ -23411,7 +23402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>317</v>
       </c>
@@ -23458,7 +23449,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>494</v>
       </c>
@@ -23505,7 +23496,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>377</v>
       </c>
@@ -23552,7 +23543,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>315</v>
       </c>
@@ -23599,7 +23590,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>463</v>
       </c>
@@ -23646,7 +23637,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>500</v>
       </c>
@@ -23693,101 +23684,101 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A454" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="B454" t="s">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="C454">
         <v>2012</v>
       </c>
       <c r="D454">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E454">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="F454">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G454">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="H454">
-        <v>50</v>
+        <v>37</v>
       </c>
       <c r="I454">
-        <v>3709300</v>
+        <v>1317714</v>
       </c>
       <c r="J454">
-        <v>2194.75</v>
+        <v>345.65</v>
       </c>
       <c r="K454">
-        <v>42.638426000000003</v>
+        <v>14.897192</v>
       </c>
       <c r="L454">
-        <v>12.674296999999999</v>
+        <v>100.83273</v>
       </c>
       <c r="M454">
-        <v>813</v>
+        <v>92</v>
       </c>
       <c r="N454">
         <v>0</v>
       </c>
       <c r="O454">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="455" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A455" t="s">
-        <v>260</v>
+        <v>267</v>
       </c>
       <c r="B455" t="s">
-        <v>590</v>
+        <v>616</v>
       </c>
       <c r="C455">
         <v>2012</v>
       </c>
       <c r="D455">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E455">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F455">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G455">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H455">
-        <v>282</v>
+        <v>30</v>
       </c>
       <c r="I455">
-        <v>46163116</v>
+        <v>10673800</v>
       </c>
       <c r="J455">
-        <v>1116.25</v>
+        <v>22.48</v>
       </c>
       <c r="K455">
-        <v>36.638392000000003</v>
+        <v>10.867785</v>
       </c>
       <c r="L455">
-        <v>127.696119</v>
+        <v>-60.982106999999999</v>
       </c>
       <c r="M455">
-        <v>336</v>
+        <v>0</v>
       </c>
       <c r="N455">
         <v>0</v>
       </c>
       <c r="O455">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>112</v>
       </c>
@@ -23834,7 +23825,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>454</v>
       </c>
@@ -23881,7 +23872,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>389</v>
       </c>
@@ -23928,7 +23919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>421</v>
       </c>
@@ -23975,7 +23966,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>294</v>
       </c>
@@ -24022,7 +24013,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>397</v>
       </c>
@@ -24069,7 +24060,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>345</v>
       </c>
@@ -24116,7 +24107,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>386</v>
       </c>
@@ -24163,7 +24154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>41</v>
       </c>
@@ -24210,7 +24201,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>472</v>
       </c>
@@ -24257,101 +24248,101 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A466" t="s">
-        <v>216</v>
+        <v>268</v>
       </c>
       <c r="B466" t="s">
-        <v>542</v>
+        <v>597</v>
       </c>
       <c r="C466">
         <v>2012</v>
       </c>
       <c r="D466">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E466">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="F466">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G466">
-        <v>34</v>
+        <v>3</v>
       </c>
       <c r="H466">
-        <v>24</v>
+        <v>83</v>
       </c>
       <c r="I466">
-        <v>1564000</v>
+        <v>74724269</v>
       </c>
       <c r="J466">
-        <v>2773.03</v>
+        <v>45.86</v>
       </c>
       <c r="K466">
-        <v>46.603354000000003</v>
+        <v>33.843941000000001</v>
       </c>
       <c r="L466">
-        <v>1.888334</v>
+        <v>9.4001380000000001</v>
       </c>
       <c r="M466">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="N466">
         <v>0</v>
       </c>
       <c r="O466">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A467" t="s">
-        <v>193</v>
+        <v>269</v>
       </c>
       <c r="B467" t="s">
-        <v>516</v>
+        <v>598</v>
       </c>
       <c r="C467">
         <v>2012</v>
       </c>
       <c r="D467">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E467">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="F467">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G467">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="H467">
-        <v>410</v>
+        <v>114</v>
       </c>
       <c r="I467">
-        <v>22823882</v>
+        <v>34131400</v>
       </c>
       <c r="J467">
-        <v>1371.76</v>
+        <v>773.09</v>
       </c>
       <c r="K467">
-        <v>-24.776108600000001</v>
+        <v>38.959758999999998</v>
       </c>
       <c r="L467">
-        <v>134.755</v>
+        <v>34.924965</v>
       </c>
       <c r="M467">
-        <v>284</v>
+        <v>1283</v>
       </c>
       <c r="N467">
         <v>0</v>
       </c>
       <c r="O467">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>73</v>
       </c>
@@ -24398,7 +24389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>399</v>
       </c>
@@ -24445,7 +24436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>43</v>
       </c>
@@ -24492,7 +24483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>460</v>
       </c>
@@ -24539,54 +24530,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>232</v>
+        <v>270</v>
       </c>
       <c r="B472" t="s">
-        <v>558</v>
+        <v>600</v>
       </c>
       <c r="C472">
         <v>2012</v>
       </c>
       <c r="D472">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E472">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F472">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G472">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="H472">
-        <v>114</v>
+        <v>16</v>
       </c>
       <c r="I472">
-        <v>16815000</v>
+        <v>45560272</v>
       </c>
       <c r="J472">
-        <v>5867.15</v>
+        <v>16.809999999999999</v>
       </c>
       <c r="K472">
-        <v>36.574843999999999</v>
+        <v>1.533355</v>
       </c>
       <c r="L472">
-        <v>139.239418</v>
+        <v>32.216658000000002</v>
       </c>
       <c r="M472">
-        <v>1039</v>
+        <v>1058</v>
       </c>
       <c r="N472">
         <v>0</v>
       </c>
       <c r="O472">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>55</v>
       </c>
@@ -24633,7 +24624,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>305</v>
       </c>
@@ -24680,7 +24671,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>109</v>
       </c>
@@ -24727,7 +24718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>110</v>
       </c>
@@ -24774,7 +24765,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>108</v>
       </c>
@@ -24821,7 +24812,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>303</v>
       </c>
@@ -24868,54 +24859,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A479" t="s">
-        <v>219</v>
+        <v>271</v>
       </c>
       <c r="B479" t="s">
-        <v>544</v>
+        <v>601</v>
       </c>
       <c r="C479">
         <v>2012</v>
       </c>
       <c r="D479">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="E479">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="F479">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="G479">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="H479">
-        <v>541</v>
+        <v>237</v>
       </c>
       <c r="I479">
-        <v>62262000</v>
+        <v>314838000</v>
       </c>
       <c r="J479">
-        <v>3570.56</v>
+        <v>165.25</v>
       </c>
       <c r="K479">
-        <v>51.083419999999997</v>
+        <v>49.487197000000002</v>
       </c>
       <c r="L479">
-        <v>10.423446999999999</v>
+        <v>31.271832</v>
       </c>
       <c r="M479">
-        <v>346</v>
+        <v>161</v>
       </c>
       <c r="N479">
         <v>0</v>
       </c>
       <c r="O479">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>280</v>
       </c>
@@ -24962,7 +24953,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>15</v>
       </c>
@@ -25009,7 +25000,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>388</v>
       </c>
@@ -25056,7 +25047,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>363</v>
       </c>
@@ -25103,7 +25094,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>306</v>
       </c>
@@ -25150,7 +25141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>462</v>
       </c>
@@ -25197,7 +25188,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>107</v>
       </c>
@@ -25244,7 +25235,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>438</v>
       </c>
@@ -25291,7 +25282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>450</v>
       </c>
@@ -25338,7 +25329,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>57</v>
       </c>
@@ -25385,7 +25376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>338</v>
       </c>
@@ -25432,7 +25423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>374</v>
       </c>
@@ -25479,54 +25470,54 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A492" t="s">
-        <v>220</v>
+        <v>272</v>
       </c>
       <c r="B492" t="s">
-        <v>546</v>
+        <v>602</v>
       </c>
       <c r="C492">
         <v>2012</v>
       </c>
       <c r="D492">
+        <v>46</v>
+      </c>
+      <c r="E492">
         <v>29</v>
       </c>
-      <c r="E492">
-        <v>17</v>
-      </c>
       <c r="F492">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="G492">
-        <v>65</v>
+        <v>104</v>
       </c>
       <c r="H492">
-        <v>104</v>
+        <v>530</v>
       </c>
       <c r="I492">
-        <v>10787690</v>
+        <v>29123400</v>
       </c>
       <c r="J492">
-        <v>2431.59</v>
+        <v>15094</v>
       </c>
       <c r="K492">
-        <v>54.315362</v>
+        <v>39.783729999999998</v>
       </c>
       <c r="L492">
-        <v>-1.918023</v>
+        <v>-100.445882</v>
       </c>
       <c r="M492">
-        <v>180</v>
+        <v>829</v>
       </c>
       <c r="N492">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O492">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>45</v>
       </c>
@@ -25573,7 +25564,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>105</v>
       </c>
@@ -25620,7 +25611,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>106</v>
       </c>
@@ -25667,101 +25658,101 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A496" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="B496" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="C496">
         <v>2012</v>
       </c>
       <c r="D496">
-        <v>24</v>
+        <v>1</v>
       </c>
       <c r="E496">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="F496">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="G496">
-        <v>82</v>
+        <v>4</v>
       </c>
       <c r="H496">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="I496">
-        <v>28376355</v>
+        <v>28946101</v>
       </c>
       <c r="J496">
-        <v>1857.77</v>
+        <v>45.36</v>
       </c>
       <c r="K496">
-        <v>64.686313999999996</v>
+        <v>41.323729999999998</v>
       </c>
       <c r="L496">
-        <v>97.745305999999999</v>
+        <v>63.952809999999999</v>
       </c>
       <c r="M496">
-        <v>599</v>
+        <v>306</v>
       </c>
       <c r="N496">
         <v>0</v>
       </c>
       <c r="O496">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="497" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A497" t="s">
-        <v>204</v>
+        <v>274</v>
       </c>
       <c r="B497" t="s">
-        <v>529</v>
+        <v>604</v>
       </c>
       <c r="C497">
         <v>2012</v>
       </c>
       <c r="D497">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="E497">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="F497">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="G497">
-        <v>87</v>
+        <v>1</v>
       </c>
       <c r="H497">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="I497">
-        <v>46803000</v>
+        <v>19406100</v>
       </c>
       <c r="J497">
-        <v>7298.1</v>
+        <v>316.48</v>
       </c>
       <c r="K497">
-        <v>35.000073999999998</v>
+        <v>8.0018709999999995</v>
       </c>
       <c r="L497">
-        <v>104.999927</v>
+        <v>-66.110932000000005</v>
       </c>
       <c r="M497">
-        <v>1958</v>
+        <v>66</v>
       </c>
       <c r="N497">
         <v>0</v>
       </c>
       <c r="O497">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>28</v>
       </c>
@@ -25808,7 +25799,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>495</v>
       </c>
@@ -25855,7 +25846,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>416</v>
       </c>
@@ -25902,7 +25893,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>509</v>
       </c>
@@ -25949,7 +25940,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>291</v>
       </c>
@@ -25996,7 +25987,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>431</v>
       </c>
@@ -26043,54 +26034,54 @@
         <v>4</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A504" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="B504" t="s">
-        <v>602</v>
+        <v>617</v>
       </c>
       <c r="C504">
         <v>2012</v>
       </c>
       <c r="D504">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E504">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F504">
-        <v>29</v>
+        <v>1</v>
       </c>
       <c r="G504">
-        <v>104</v>
+        <v>1</v>
       </c>
       <c r="H504">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="I504">
-        <v>29123400</v>
+        <v>87840000</v>
       </c>
       <c r="J504">
-        <v>15094</v>
+        <v>1.95</v>
       </c>
       <c r="K504">
-        <v>39.783729999999998</v>
+        <v>13.290403</v>
       </c>
       <c r="L504">
-        <v>-100.445882</v>
+        <v>108.426511</v>
       </c>
       <c r="M504">
-        <v>829</v>
+        <v>399</v>
       </c>
       <c r="N504">
         <v>0</v>
       </c>
       <c r="O504">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>357</v>
       </c>
@@ -26137,7 +26128,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>101</v>
       </c>
@@ -26184,7 +26175,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>104</v>
       </c>
@@ -26231,14 +26222,105 @@
         <v>4</v>
       </c>
     </row>
+    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="513" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="514" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="515" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="516" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="517" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="518" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="519" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="520" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="521" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="522" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="523" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="524" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="525" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="526" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="527" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="528" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="529" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="530" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="531" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="532" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="533" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="534" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="535" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="536" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="537" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="538" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="539" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="540" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="541" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="542" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="543" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="544" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="545" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="546" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="547" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="548" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="549" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="550" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="551" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="552" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="553" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="554" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="555" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="556" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="557" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="558" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="559" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="560" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="561" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="562" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="563" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="564" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="565" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="566" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="567" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="568" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="569" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="570" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="571" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="572" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="573" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="574" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="575" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="576" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="577" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="578" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="579" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="580" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="581" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="582" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="583" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="584" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="585" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="586" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="587" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="588" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="589" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="590" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="591" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="592" hidden="1" x14ac:dyDescent="0.35"/>
+    <row r="593" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="A1:N593" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="2012"/>
+      </filters>
+    </filterColumn>
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N593">
       <sortCondition ref="B1"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N507">
-    <sortCondition ref="G2:G507"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:O504">
+    <sortCondition ref="B1:B593"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/final_df.xlsx
+++ b/final_df.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattw\Butlerdata\Machine-Learning-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FB5699-F5AE-400E-B425-300BD82FCE77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE69577F-3D2D-4633-83B5-9AB141FB699F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$593</definedName>
   </definedNames>
@@ -2057,6 +2060,19 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2380,20 +2396,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:O593"/>
+  <dimension ref="A1:P507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
-      <selection activeCell="H594" sqref="H594"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="K595" sqref="K595"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="15.1796875" customWidth="1"/>
     <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2439,8 +2455,9 @@
       <c r="O1" s="3" t="s">
         <v>646</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+      <c r="P1" s="3"/>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>437</v>
       </c>
@@ -2487,7 +2504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>442</v>
       </c>
@@ -2534,7 +2551,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>447</v>
       </c>
@@ -2581,7 +2598,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>449</v>
       </c>
@@ -2628,7 +2645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>451</v>
       </c>
@@ -2675,7 +2692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>466</v>
       </c>
@@ -2722,7 +2739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -2769,7 +2786,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>470</v>
       </c>
@@ -2816,7 +2833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>471</v>
       </c>
@@ -2863,7 +2880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>477</v>
       </c>
@@ -2910,7 +2927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>478</v>
       </c>
@@ -2957,7 +2974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>481</v>
       </c>
@@ -3004,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>485</v>
       </c>
@@ -3051,7 +3068,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>493</v>
       </c>
@@ -3098,7 +3115,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>502</v>
       </c>
@@ -3145,7 +3162,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>510</v>
       </c>
@@ -3192,7 +3209,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>512</v>
       </c>
@@ -3239,7 +3256,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>371</v>
       </c>
@@ -3286,7 +3303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>380</v>
       </c>
@@ -3333,7 +3350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>382</v>
       </c>
@@ -3380,7 +3397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>391</v>
       </c>
@@ -3427,7 +3444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>393</v>
       </c>
@@ -3474,7 +3491,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>405</v>
       </c>
@@ -3521,7 +3538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>412</v>
       </c>
@@ -3568,7 +3585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>425</v>
       </c>
@@ -3615,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>427</v>
       </c>
@@ -3662,7 +3679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>430</v>
       </c>
@@ -3709,7 +3726,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>276</v>
       </c>
@@ -3756,7 +3773,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>288</v>
       </c>
@@ -3803,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -3850,7 +3867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>298</v>
       </c>
@@ -3897,7 +3914,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>309</v>
       </c>
@@ -3944,7 +3961,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>314</v>
       </c>
@@ -3991,7 +4008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>323</v>
       </c>
@@ -4038,7 +4055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>324</v>
       </c>
@@ -4085,7 +4102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>326</v>
       </c>
@@ -4132,7 +4149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>334</v>
       </c>
@@ -4179,7 +4196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>339</v>
       </c>
@@ -4226,7 +4243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>341</v>
       </c>
@@ -4273,7 +4290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>344</v>
       </c>
@@ -4320,7 +4337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>347</v>
       </c>
@@ -4367,7 +4384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>352</v>
       </c>
@@ -4414,7 +4431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>354</v>
       </c>
@@ -4461,7 +4478,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>359</v>
       </c>
@@ -4508,7 +4525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>360</v>
       </c>
@@ -4581,7 +4598,7 @@
         <v>6</v>
       </c>
       <c r="I47">
-        <v>25500100</v>
+        <v>30419928</v>
       </c>
       <c r="J47">
         <v>20.34</v>
@@ -4599,7 +4616,7 @@
         <v>0</v>
       </c>
       <c r="O47">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.35">
@@ -4628,7 +4645,7 @@
         <v>42</v>
       </c>
       <c r="I48">
-        <v>37100000</v>
+        <v>35406303</v>
       </c>
       <c r="J48">
         <v>188.68</v>
@@ -4646,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="O48">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.35">
@@ -4693,7 +4710,7 @@
         <v>0</v>
       </c>
       <c r="O49">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.35">
@@ -4722,7 +4739,7 @@
         <v>25</v>
       </c>
       <c r="I50">
-        <v>3275700</v>
+        <v>2970495</v>
       </c>
       <c r="J50">
         <v>10.25</v>
@@ -4740,7 +4757,7 @@
         <v>0</v>
       </c>
       <c r="O50">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.35">
@@ -4787,7 +4804,7 @@
         <v>0</v>
       </c>
       <c r="O51">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.35">
@@ -4834,7 +4851,7 @@
         <v>0</v>
       </c>
       <c r="O52">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.35">
@@ -4881,7 +4898,7 @@
         <v>0</v>
       </c>
       <c r="O53">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.35">
@@ -4928,7 +4945,7 @@
         <v>0</v>
       </c>
       <c r="O54">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.35">
@@ -4975,7 +4992,7 @@
         <v>0</v>
       </c>
       <c r="O55">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.35">
@@ -5022,7 +5039,7 @@
         <v>0</v>
       </c>
       <c r="O56">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.35">
@@ -5069,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="O57">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.35">
@@ -5163,7 +5180,7 @@
         <v>0</v>
       </c>
       <c r="O59">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.35">
@@ -5192,7 +5209,7 @@
         <v>33</v>
       </c>
       <c r="I60">
-        <v>34990400</v>
+        <v>20129878</v>
       </c>
       <c r="J60">
         <v>29.12</v>
@@ -5210,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="O60">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.35">
@@ -5239,7 +5256,7 @@
         <v>277</v>
       </c>
       <c r="I61">
-        <v>1347350000</v>
+        <v>34300083</v>
       </c>
       <c r="J61">
         <v>1736.05</v>
@@ -5257,7 +5274,7 @@
         <v>0</v>
       </c>
       <c r="O61">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.35">
@@ -5286,7 +5303,7 @@
         <v>396</v>
       </c>
       <c r="I62">
-        <v>46803000</v>
+        <v>1347350000</v>
       </c>
       <c r="J62">
         <v>7298.1</v>
@@ -5304,7 +5321,7 @@
         <v>0</v>
       </c>
       <c r="O62">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.35">
@@ -5333,7 +5350,7 @@
         <v>104</v>
       </c>
       <c r="I63">
-        <v>4290612</v>
+        <v>46803000</v>
       </c>
       <c r="J63">
         <v>331.65</v>
@@ -5351,7 +5368,7 @@
         <v>0</v>
       </c>
       <c r="O63">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.35">
@@ -5380,7 +5397,7 @@
         <v>108</v>
       </c>
       <c r="I64">
-        <v>11247925</v>
+        <v>4290612</v>
       </c>
       <c r="J64">
         <v>63.85</v>
@@ -5398,7 +5415,7 @@
         <v>0</v>
       </c>
       <c r="O64">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.35">
@@ -5427,7 +5444,7 @@
         <v>110</v>
       </c>
       <c r="I65">
-        <v>838897</v>
+        <v>11247925</v>
       </c>
       <c r="J65">
         <v>60.81</v>
@@ -5474,7 +5491,7 @@
         <v>13</v>
       </c>
       <c r="I66">
-        <v>10507566</v>
+        <v>838897</v>
       </c>
       <c r="J66">
         <v>24.69</v>
@@ -5495,7 +5512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>180</v>
       </c>
@@ -5542,7 +5559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>171</v>
       </c>
@@ -5589,7 +5606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>181</v>
       </c>
@@ -5636,7 +5653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>182</v>
       </c>
@@ -5683,7 +5700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -5730,7 +5747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>183</v>
       </c>
@@ -5777,7 +5794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>172</v>
       </c>
@@ -5824,7 +5841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>157</v>
       </c>
@@ -5871,7 +5888,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>158</v>
       </c>
@@ -5918,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>184</v>
       </c>
@@ -5965,7 +5982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>173</v>
       </c>
@@ -6012,7 +6029,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>185</v>
       </c>
@@ -6059,7 +6076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>174</v>
       </c>
@@ -6106,7 +6123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>186</v>
       </c>
@@ -6153,7 +6170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>159</v>
       </c>
@@ -6200,7 +6217,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>175</v>
       </c>
@@ -6247,7 +6264,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>160</v>
       </c>
@@ -6294,7 +6311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>161</v>
       </c>
@@ -6341,7 +6358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>187</v>
       </c>
@@ -6388,7 +6405,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>188</v>
       </c>
@@ -6435,7 +6452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -6482,7 +6499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -6529,7 +6546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -6576,7 +6593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -6623,7 +6640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -6670,7 +6687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>47</v>
       </c>
@@ -6717,7 +6734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>640</v>
       </c>
@@ -6764,7 +6781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>62</v>
       </c>
@@ -6811,7 +6828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>65</v>
       </c>
@@ -6858,7 +6875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>66</v>
       </c>
@@ -6905,7 +6922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -6952,7 +6969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>71</v>
       </c>
@@ -6999,7 +7016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>72</v>
       </c>
@@ -7046,7 +7063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>80</v>
       </c>
@@ -7093,7 +7110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>84</v>
       </c>
@@ -7140,7 +7157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>93</v>
       </c>
@@ -7187,7 +7204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -7234,7 +7251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>452</v>
       </c>
@@ -7281,7 +7298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>453</v>
       </c>
@@ -7328,7 +7345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>483</v>
       </c>
@@ -7375,7 +7392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>492</v>
       </c>
@@ -7422,7 +7439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>496</v>
       </c>
@@ -7469,7 +7486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>498</v>
       </c>
@@ -7516,7 +7533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>506</v>
       </c>
@@ -7563,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>366</v>
       </c>
@@ -7610,7 +7627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>375</v>
       </c>
@@ -7657,7 +7674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>385</v>
       </c>
@@ -7704,7 +7721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>396</v>
       </c>
@@ -7751,7 +7768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>409</v>
       </c>
@@ -7798,7 +7815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>417</v>
       </c>
@@ -7845,7 +7862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>433</v>
       </c>
@@ -7892,7 +7909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>277</v>
       </c>
@@ -7939,7 +7956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>283</v>
       </c>
@@ -7986,7 +8003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>285</v>
       </c>
@@ -8033,7 +8050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>297</v>
       </c>
@@ -8080,7 +8097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>299</v>
       </c>
@@ -8127,7 +8144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>300</v>
       </c>
@@ -8174,7 +8191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>312</v>
       </c>
@@ -8221,7 +8238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>328</v>
       </c>
@@ -8268,7 +8285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>336</v>
       </c>
@@ -8315,7 +8332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>350</v>
       </c>
@@ -8362,7 +8379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>353</v>
       </c>
@@ -8435,7 +8452,7 @@
         <v>133</v>
       </c>
       <c r="I129">
-        <v>5587085</v>
+        <v>10507566</v>
       </c>
       <c r="J129">
         <v>215.22</v>
@@ -8482,7 +8499,7 @@
         <v>113</v>
       </c>
       <c r="I130">
-        <v>9445281</v>
+        <v>5587085</v>
       </c>
       <c r="J130">
         <v>332.68</v>
@@ -8529,7 +8546,7 @@
         <v>35</v>
       </c>
       <c r="I131">
-        <v>82886000</v>
+        <v>9445281</v>
       </c>
       <c r="J131">
         <v>55.61</v>
@@ -8576,7 +8593,7 @@
         <v>113</v>
       </c>
       <c r="I132">
-        <v>1294236</v>
+        <v>82886000</v>
       </c>
       <c r="J132">
         <v>229.53</v>
@@ -8623,7 +8640,7 @@
         <v>33</v>
       </c>
       <c r="I133">
-        <v>84320987</v>
+        <v>1294236</v>
       </c>
       <c r="J133">
         <v>22.18</v>
@@ -8670,7 +8687,7 @@
         <v>35</v>
       </c>
       <c r="I134">
-        <v>5425320</v>
+        <v>84320987</v>
       </c>
       <c r="J134">
         <v>31.71</v>
@@ -8688,7 +8705,7 @@
         <v>0</v>
       </c>
       <c r="O134">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:15" x14ac:dyDescent="0.35">
@@ -8717,7 +8734,7 @@
         <v>55</v>
       </c>
       <c r="I135">
-        <v>63350000</v>
+        <v>5425320</v>
       </c>
       <c r="J135">
         <v>266.07</v>
@@ -8764,7 +8781,7 @@
         <v>330</v>
       </c>
       <c r="I136">
-        <v>1564000</v>
+        <v>63350000</v>
       </c>
       <c r="J136">
         <v>2773.03</v>
@@ -8782,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="O136">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:15" x14ac:dyDescent="0.35">
@@ -8811,7 +8828,7 @@
         <v>24</v>
       </c>
       <c r="I137">
-        <v>4497600</v>
+        <v>1564000</v>
       </c>
       <c r="J137">
         <v>17.05</v>
@@ -8858,7 +8875,7 @@
         <v>35</v>
       </c>
       <c r="I138">
-        <v>81857000</v>
+        <v>4497600</v>
       </c>
       <c r="J138">
         <v>14.37</v>
@@ -8876,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="O138">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:15" x14ac:dyDescent="0.35">
@@ -8905,7 +8922,7 @@
         <v>392</v>
       </c>
       <c r="I139">
-        <v>62262000</v>
+        <v>81857000</v>
       </c>
       <c r="J139">
         <v>3570.56</v>
@@ -8923,7 +8940,7 @@
         <v>0</v>
       </c>
       <c r="O139">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:15" x14ac:dyDescent="0.35">
@@ -8952,7 +8969,7 @@
         <v>541</v>
       </c>
       <c r="I140">
-        <v>10787690</v>
+        <v>62262000</v>
       </c>
       <c r="J140">
         <v>2431.59</v>
@@ -8970,7 +8987,7 @@
         <v>1</v>
       </c>
       <c r="O140">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:15" x14ac:dyDescent="0.35">
@@ -8999,7 +9016,7 @@
         <v>104</v>
       </c>
       <c r="I141">
-        <v>110821</v>
+        <v>10787690</v>
       </c>
       <c r="J141">
         <v>298.73</v>
@@ -9020,7 +9037,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>165</v>
       </c>
@@ -9067,7 +9084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>153</v>
       </c>
@@ -9114,7 +9131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>151</v>
       </c>
@@ -9161,7 +9178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>169</v>
       </c>
@@ -9208,7 +9225,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -9255,7 +9272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>179</v>
       </c>
@@ -9302,7 +9319,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -9349,7 +9366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -9396,7 +9413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -9443,7 +9460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -9490,7 +9507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -9537,7 +9554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>37</v>
       </c>
@@ -9584,7 +9601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>39</v>
       </c>
@@ -9631,7 +9648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -9678,7 +9695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>58</v>
       </c>
@@ -9725,7 +9742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>61</v>
       </c>
@@ -9772,7 +9789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>64</v>
       </c>
@@ -9819,7 +9836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>67</v>
       </c>
@@ -9866,7 +9883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>75</v>
       </c>
@@ -9913,7 +9930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>95</v>
       </c>
@@ -9960,7 +9977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>96</v>
       </c>
@@ -10007,7 +10024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>439</v>
       </c>
@@ -10054,7 +10071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>440</v>
       </c>
@@ -10101,7 +10118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>441</v>
       </c>
@@ -10148,7 +10165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>457</v>
       </c>
@@ -10195,7 +10212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>479</v>
       </c>
@@ -10242,7 +10259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>488</v>
       </c>
@@ -10289,7 +10306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>505</v>
       </c>
@@ -10336,7 +10353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>513</v>
       </c>
@@ -10383,7 +10400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>368</v>
       </c>
@@ -10430,7 +10447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>373</v>
       </c>
@@ -10477,7 +10494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>383</v>
       </c>
@@ -10524,7 +10541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>403</v>
       </c>
@@ -10571,7 +10588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>406</v>
       </c>
@@ -10618,7 +10635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>414</v>
       </c>
@@ -10665,7 +10682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>434</v>
       </c>
@@ -10712,7 +10729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>281</v>
       </c>
@@ -10759,7 +10776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>292</v>
       </c>
@@ -10806,7 +10823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>307</v>
       </c>
@@ -10853,7 +10870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>310</v>
       </c>
@@ -10900,7 +10917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>313</v>
       </c>
@@ -10947,7 +10964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>320</v>
       </c>
@@ -10994,7 +11011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>321</v>
       </c>
@@ -11041,7 +11058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>340</v>
       </c>
@@ -11114,7 +11131,7 @@
         <v>10</v>
       </c>
       <c r="I186">
-        <v>14713763</v>
+        <v>110821</v>
       </c>
       <c r="J186">
         <v>0.82</v>
@@ -11161,7 +11178,7 @@
         <v>19</v>
       </c>
       <c r="I187">
-        <v>7103700</v>
+        <v>14713763</v>
       </c>
       <c r="J187">
         <v>46.9</v>
@@ -11208,7 +11225,7 @@
         <v>42</v>
       </c>
       <c r="I188">
-        <v>9957731</v>
+        <v>7103700</v>
       </c>
       <c r="J188">
         <v>243.67</v>
@@ -11255,7 +11272,7 @@
         <v>157</v>
       </c>
       <c r="I189">
-        <v>1210193422</v>
+        <v>9957731</v>
       </c>
       <c r="J189">
         <v>140.03</v>
@@ -11273,7 +11290,7 @@
         <v>0</v>
       </c>
       <c r="O189">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:15" x14ac:dyDescent="0.35">
@@ -11302,7 +11319,7 @@
         <v>83</v>
       </c>
       <c r="I190">
-        <v>237641326</v>
+        <v>1210193422</v>
       </c>
       <c r="J190">
         <v>1847.98</v>
@@ -11323,7 +11340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>168</v>
       </c>
@@ -11370,7 +11387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>177</v>
       </c>
@@ -11417,7 +11434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>149</v>
       </c>
@@ -11464,7 +11481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>645</v>
       </c>
@@ -11511,7 +11528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>178</v>
       </c>
@@ -11558,7 +11575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>164</v>
       </c>
@@ -11605,7 +11622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>13</v>
       </c>
@@ -11652,7 +11669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>35</v>
       </c>
@@ -11699,7 +11716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>63</v>
       </c>
@@ -11746,7 +11763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>81</v>
       </c>
@@ -11793,7 +11810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>83</v>
       </c>
@@ -11840,7 +11857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>88</v>
       </c>
@@ -11887,7 +11904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>436</v>
       </c>
@@ -11934,7 +11951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>459</v>
       </c>
@@ -11981,7 +11998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>469</v>
       </c>
@@ -12028,7 +12045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>487</v>
       </c>
@@ -12075,7 +12092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>489</v>
       </c>
@@ -12122,7 +12139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>511</v>
       </c>
@@ -12169,7 +12186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>387</v>
       </c>
@@ -12216,7 +12233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>394</v>
       </c>
@@ -12263,7 +12280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>402</v>
       </c>
@@ -12310,7 +12327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>404</v>
       </c>
@@ -12357,7 +12374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>419</v>
       </c>
@@ -12404,7 +12421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>302</v>
       </c>
@@ -12451,7 +12468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>325</v>
       </c>
@@ -12498,7 +12515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>327</v>
       </c>
@@ -12545,7 +12562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>644</v>
       </c>
@@ -12592,7 +12609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>358</v>
       </c>
@@ -12639,7 +12656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>361</v>
       </c>
@@ -12712,7 +12729,7 @@
         <v>22</v>
       </c>
       <c r="I220">
-        <v>75149669</v>
+        <v>237641326</v>
       </c>
       <c r="J220">
         <v>846.83</v>
@@ -12759,7 +12776,7 @@
         <v>53</v>
       </c>
       <c r="I221">
-        <v>4588252</v>
+        <v>75149669</v>
       </c>
       <c r="J221">
         <v>86.53</v>
@@ -12777,7 +12794,7 @@
         <v>0</v>
       </c>
       <c r="O221">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="222" spans="1:15" x14ac:dyDescent="0.35">
@@ -12806,7 +12823,7 @@
         <v>66</v>
       </c>
       <c r="I222">
-        <v>60849247</v>
+        <v>4588252</v>
       </c>
       <c r="J222">
         <v>217.28</v>
@@ -12853,7 +12870,7 @@
         <v>285</v>
       </c>
       <c r="I223">
-        <v>3709300</v>
+        <v>60849247</v>
       </c>
       <c r="J223">
         <v>2194.75</v>
@@ -12871,7 +12888,7 @@
         <v>0</v>
       </c>
       <c r="O223">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="224" spans="1:15" x14ac:dyDescent="0.35">
@@ -12900,7 +12917,7 @@
         <v>50</v>
       </c>
       <c r="I224">
-        <v>127530000</v>
+        <v>3709300</v>
       </c>
       <c r="J224">
         <v>15.07</v>
@@ -12918,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="O224">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="225" spans="1:15" x14ac:dyDescent="0.35">
@@ -12947,7 +12964,7 @@
         <v>293</v>
       </c>
       <c r="I225">
-        <v>16815000</v>
+        <v>127530000</v>
       </c>
       <c r="J225">
         <v>5867.15</v>
@@ -12965,7 +12982,7 @@
         <v>0</v>
       </c>
       <c r="O225">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="226" spans="1:15" x14ac:dyDescent="0.35">
@@ -12994,7 +13011,7 @@
         <v>114</v>
       </c>
       <c r="I226">
-        <v>38610097</v>
+        <v>16815000</v>
       </c>
       <c r="J226">
         <v>186.2</v>
@@ -13012,7 +13029,7 @@
         <v>0</v>
       </c>
       <c r="O226">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="227" spans="1:15" x14ac:dyDescent="0.35">
@@ -13041,7 +13058,7 @@
         <v>47</v>
       </c>
       <c r="I227">
-        <v>3582054</v>
+        <v>38610097</v>
       </c>
       <c r="J227">
         <v>33.619999999999997</v>
@@ -13059,10 +13076,10 @@
         <v>0</v>
       </c>
       <c r="O227">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="228" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>130</v>
       </c>
@@ -13109,7 +13126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>145</v>
       </c>
@@ -13156,7 +13173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>167</v>
       </c>
@@ -13203,7 +13220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>176</v>
       </c>
@@ -13250,7 +13267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>150</v>
       </c>
@@ -13297,7 +13314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>140</v>
       </c>
@@ -13344,7 +13361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>148</v>
       </c>
@@ -13391,7 +13408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -13438,7 +13455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>38</v>
       </c>
@@ -13485,7 +13502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>46</v>
       </c>
@@ -13532,7 +13549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>53</v>
       </c>
@@ -13579,7 +13596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>54</v>
       </c>
@@ -13626,7 +13643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>68</v>
       </c>
@@ -13673,7 +13690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>70</v>
       </c>
@@ -13720,7 +13737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>77</v>
       </c>
@@ -13767,7 +13784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>79</v>
       </c>
@@ -13814,7 +13831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>82</v>
       </c>
@@ -13861,7 +13878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>86</v>
       </c>
@@ -13908,7 +13925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>99</v>
       </c>
@@ -13955,7 +13972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>103</v>
       </c>
@@ -14002,7 +14019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>435</v>
       </c>
@@ -14049,7 +14066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>444</v>
       </c>
@@ -14096,7 +14113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>480</v>
       </c>
@@ -14143,7 +14160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>484</v>
       </c>
@@ -14190,7 +14207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>497</v>
       </c>
@@ -14237,7 +14254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>499</v>
       </c>
@@ -14284,7 +14301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>642</v>
       </c>
@@ -14331,7 +14348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>507</v>
       </c>
@@ -14378,7 +14395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>365</v>
       </c>
@@ -14425,7 +14442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>376</v>
       </c>
@@ -14472,7 +14489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>381</v>
       </c>
@@ -14519,7 +14536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>398</v>
       </c>
@@ -14566,7 +14583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>408</v>
       </c>
@@ -14613,7 +14630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>410</v>
       </c>
@@ -14660,7 +14677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>424</v>
       </c>
@@ -14707,7 +14724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>643</v>
       </c>
@@ -14754,7 +14771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>432</v>
       </c>
@@ -14801,7 +14818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>279</v>
       </c>
@@ -14848,7 +14865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -14895,7 +14912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>293</v>
       </c>
@@ -14942,7 +14959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>322</v>
       </c>
@@ -14989,7 +15006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>331</v>
       </c>
@@ -15036,7 +15053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>343</v>
       </c>
@@ -15083,7 +15100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>348</v>
       </c>
@@ -15130,7 +15147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>355</v>
       </c>
@@ -15203,7 +15220,7 @@
         <v>11</v>
       </c>
       <c r="I273">
-        <v>2070371</v>
+        <v>3582054</v>
       </c>
       <c r="J273">
         <v>176.59</v>
@@ -15250,7 +15267,7 @@
         <v>46</v>
       </c>
       <c r="I274">
-        <v>3180394</v>
+        <v>2070371</v>
       </c>
       <c r="J274">
         <v>28.25</v>
@@ -15297,7 +15314,7 @@
         <v>62</v>
       </c>
       <c r="I275">
-        <v>29570000</v>
+        <v>3180394</v>
       </c>
       <c r="J275">
         <v>42.73</v>
@@ -15344,7 +15361,7 @@
         <v>30</v>
       </c>
       <c r="I276">
-        <v>112336538</v>
+        <v>29570000</v>
       </c>
       <c r="J276">
         <v>278.67</v>
@@ -15362,10 +15379,10 @@
         <v>0</v>
       </c>
       <c r="O276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>162</v>
       </c>
@@ -15412,7 +15429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>163</v>
       </c>
@@ -15459,7 +15476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>29</v>
       </c>
@@ -15506,7 +15523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>34</v>
       </c>
@@ -15553,7 +15570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>51</v>
       </c>
@@ -15600,7 +15617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>87</v>
       </c>
@@ -15647,7 +15664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>102</v>
       </c>
@@ -15694,7 +15711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>456</v>
       </c>
@@ -15741,7 +15758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>461</v>
       </c>
@@ -15788,7 +15805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>468</v>
       </c>
@@ -15835,7 +15852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>482</v>
       </c>
@@ -15882,7 +15899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>362</v>
       </c>
@@ -15929,7 +15946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>395</v>
       </c>
@@ -15976,7 +15993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>411</v>
       </c>
@@ -16023,7 +16040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>418</v>
       </c>
@@ -16070,7 +16087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>420</v>
       </c>
@@ -16117,7 +16134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>278</v>
       </c>
@@ -16164,7 +16181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>282</v>
       </c>
@@ -16211,7 +16228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>311</v>
       </c>
@@ -16258,7 +16275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>332</v>
       </c>
@@ -16305,7 +16322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>342</v>
       </c>
@@ -16352,7 +16369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>351</v>
       </c>
@@ -16425,7 +16442,7 @@
         <v>102</v>
       </c>
       <c r="I299">
-        <v>3559500</v>
+        <v>112336538</v>
       </c>
       <c r="J299">
         <v>1155.32</v>
@@ -16472,7 +16489,7 @@
         <v>22</v>
       </c>
       <c r="I300">
-        <v>2736800</v>
+        <v>3559500</v>
       </c>
       <c r="J300">
         <v>7</v>
@@ -16490,7 +16507,7 @@
         <v>0</v>
       </c>
       <c r="O300">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="301" spans="1:15" x14ac:dyDescent="0.35">
@@ -16519,7 +16536,7 @@
         <v>29</v>
       </c>
       <c r="I301">
-        <v>620029</v>
+        <v>2736800</v>
       </c>
       <c r="J301">
         <v>8.56</v>
@@ -16537,7 +16554,7 @@
         <v>0</v>
       </c>
       <c r="O301">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:15" x14ac:dyDescent="0.35">
@@ -16566,7 +16583,7 @@
         <v>33</v>
       </c>
       <c r="I302">
-        <v>32741100</v>
+        <v>620029</v>
       </c>
       <c r="J302">
         <v>4.55</v>
@@ -16587,7 +16604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A303" t="s">
         <v>138</v>
       </c>
@@ -16634,7 +16651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A304" t="s">
         <v>129</v>
       </c>
@@ -16681,7 +16698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A305" t="s">
         <v>139</v>
       </c>
@@ -16728,7 +16745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A306" t="s">
         <v>25</v>
       </c>
@@ -16775,7 +16792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A307" t="s">
         <v>36</v>
       </c>
@@ -16822,7 +16839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A308" t="s">
         <v>48</v>
       </c>
@@ -16869,7 +16886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A309" t="s">
         <v>475</v>
       </c>
@@ -16916,7 +16933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A310" t="s">
         <v>476</v>
       </c>
@@ -16963,7 +16980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A311" t="s">
         <v>364</v>
       </c>
@@ -17010,7 +17027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A312" t="s">
         <v>384</v>
       </c>
@@ -17057,7 +17074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A313" t="s">
         <v>401</v>
       </c>
@@ -17104,7 +17121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A314" t="s">
         <v>423</v>
       </c>
@@ -17151,7 +17168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A315" t="s">
         <v>295</v>
       </c>
@@ -17198,7 +17215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A316" t="s">
         <v>296</v>
       </c>
@@ -17245,7 +17262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A317" t="s">
         <v>301</v>
       </c>
@@ -17292,7 +17309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A318" t="s">
         <v>304</v>
       </c>
@@ -17339,7 +17356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A319" t="s">
         <v>349</v>
       </c>
@@ -17412,7 +17429,7 @@
         <v>67</v>
       </c>
       <c r="I320">
-        <v>16765558</v>
+        <v>32741100</v>
       </c>
       <c r="J320">
         <v>100.22</v>
@@ -17459,7 +17476,7 @@
         <v>175</v>
       </c>
       <c r="I321">
-        <v>4446900</v>
+        <v>16765558</v>
       </c>
       <c r="J321">
         <v>836.26</v>
@@ -17477,7 +17494,7 @@
         <v>0</v>
       </c>
       <c r="O321">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="322" spans="1:15" x14ac:dyDescent="0.35">
@@ -17506,7 +17523,7 @@
         <v>184</v>
       </c>
       <c r="I322">
-        <v>24554000</v>
+        <v>4446900</v>
       </c>
       <c r="J322">
         <v>130.68</v>
@@ -17524,10 +17541,10 @@
         <v>0</v>
       </c>
       <c r="O322">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="323" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A323" t="s">
         <v>141</v>
       </c>
@@ -17574,7 +17591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A324" t="s">
         <v>137</v>
       </c>
@@ -17621,7 +17638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A325" t="s">
         <v>127</v>
       </c>
@@ -17668,7 +17685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A326" t="s">
         <v>16</v>
       </c>
@@ -17715,7 +17732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A327" t="s">
         <v>17</v>
       </c>
@@ -17762,7 +17779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A328" t="s">
         <v>20</v>
       </c>
@@ -17809,7 +17826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A329" t="s">
         <v>21</v>
       </c>
@@ -17856,7 +17873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A330" t="s">
         <v>50</v>
       </c>
@@ -17903,7 +17920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A331" t="s">
         <v>52</v>
       </c>
@@ -17950,7 +17967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A332" t="s">
         <v>455</v>
       </c>
@@ -17997,7 +18014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A333" t="s">
         <v>458</v>
       </c>
@@ -18044,7 +18061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A334" t="s">
         <v>379</v>
       </c>
@@ -18091,7 +18108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A335" t="s">
         <v>400</v>
       </c>
@@ -18138,7 +18155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A336" t="s">
         <v>426</v>
       </c>
@@ -18211,7 +18228,7 @@
         <v>51</v>
       </c>
       <c r="I337">
-        <v>5050600</v>
+        <v>24554000</v>
       </c>
       <c r="J337">
         <v>22</v>
@@ -18258,7 +18275,7 @@
         <v>64</v>
       </c>
       <c r="I338">
-        <v>38538447</v>
+        <v>5050600</v>
       </c>
       <c r="J338">
         <v>485.8</v>
@@ -18279,7 +18296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A339" t="s">
         <v>126</v>
       </c>
@@ -18326,7 +18343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A340" t="s">
         <v>147</v>
       </c>
@@ -18373,7 +18390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A341" t="s">
         <v>128</v>
       </c>
@@ -18420,7 +18437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A342" t="s">
         <v>135</v>
       </c>
@@ -18467,7 +18484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A343" t="s">
         <v>144</v>
       </c>
@@ -18514,7 +18531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A344" t="s">
         <v>30</v>
       </c>
@@ -18561,7 +18578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A345" t="s">
         <v>42</v>
       </c>
@@ -18608,7 +18625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A346" t="s">
         <v>59</v>
       </c>
@@ -18655,7 +18672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A347" t="s">
         <v>76</v>
       </c>
@@ -18702,7 +18719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A348" t="s">
         <v>473</v>
       </c>
@@ -18749,7 +18766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A349" t="s">
         <v>504</v>
       </c>
@@ -18796,7 +18813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -18843,7 +18860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A351" t="s">
         <v>318</v>
       </c>
@@ -18890,7 +18907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A352" t="s">
         <v>330</v>
       </c>
@@ -18937,7 +18954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A353" t="s">
         <v>333</v>
       </c>
@@ -18984,7 +19001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A354" t="s">
         <v>337</v>
       </c>
@@ -19057,7 +19074,7 @@
         <v>218</v>
       </c>
       <c r="I355">
-        <v>10561614</v>
+        <v>38538447</v>
       </c>
       <c r="J355">
         <v>514.5</v>
@@ -19104,7 +19121,7 @@
         <v>77</v>
       </c>
       <c r="I356">
-        <v>3706690</v>
+        <v>10561614</v>
       </c>
       <c r="J356">
         <v>237.52</v>
@@ -19125,7 +19142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A357" t="s">
         <v>143</v>
       </c>
@@ -19172,7 +19189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A358" t="s">
         <v>56</v>
       </c>
@@ -19219,7 +19236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A359" t="s">
         <v>85</v>
       </c>
@@ -19266,7 +19283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A360" t="s">
         <v>91</v>
       </c>
@@ -19313,7 +19330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A361" t="s">
         <v>490</v>
       </c>
@@ -19360,7 +19377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
         <v>369</v>
       </c>
@@ -19407,7 +19424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A363" t="s">
         <v>413</v>
       </c>
@@ -19454,7 +19471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A364" t="s">
         <v>308</v>
       </c>
@@ -19527,7 +19544,7 @@
         <v>25</v>
       </c>
       <c r="I365">
-        <v>1757540</v>
+        <v>3706690</v>
       </c>
       <c r="J365">
         <v>92.61</v>
@@ -19574,7 +19591,7 @@
         <v>12</v>
       </c>
       <c r="I366">
-        <v>19042936</v>
+        <v>1757540</v>
       </c>
       <c r="J366">
         <v>172.98</v>
@@ -19621,7 +19638,7 @@
         <v>103</v>
       </c>
       <c r="I367">
-        <v>143300000</v>
+        <v>19042936</v>
       </c>
       <c r="J367">
         <v>179.79</v>
@@ -19642,7 +19659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A368" t="s">
         <v>120</v>
       </c>
@@ -19689,7 +19706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A369" t="s">
         <v>146</v>
       </c>
@@ -19736,7 +19753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A370" t="s">
         <v>133</v>
       </c>
@@ -19783,7 +19800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A371" t="s">
         <v>60</v>
       </c>
@@ -19830,7 +19847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A372" t="s">
         <v>501</v>
       </c>
@@ -19877,7 +19894,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A373" t="s">
         <v>428</v>
       </c>
@@ -19924,7 +19941,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A374" t="s">
         <v>316</v>
       </c>
@@ -19971,7 +19988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A375" t="s">
         <v>335</v>
       </c>
@@ -20044,7 +20061,7 @@
         <v>436</v>
       </c>
       <c r="I376">
-        <v>28376355</v>
+        <v>143300000</v>
       </c>
       <c r="J376">
         <v>1857.77</v>
@@ -20062,10 +20079,10 @@
         <v>0</v>
       </c>
       <c r="O376">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="377" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A377" t="s">
         <v>121</v>
       </c>
@@ -20112,7 +20129,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A378" t="s">
         <v>119</v>
       </c>
@@ -20159,7 +20176,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A379" t="s">
         <v>136</v>
       </c>
@@ -20206,7 +20223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A380" t="s">
         <v>132</v>
       </c>
@@ -20253,7 +20270,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A381" t="s">
         <v>134</v>
       </c>
@@ -20300,7 +20317,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A382" t="s">
         <v>32</v>
       </c>
@@ -20347,7 +20364,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A383" t="s">
         <v>33</v>
       </c>
@@ -20394,7 +20411,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A384" t="s">
         <v>445</v>
       </c>
@@ -20441,7 +20458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A385" t="s">
         <v>503</v>
       </c>
@@ -20488,7 +20505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A386" t="s">
         <v>370</v>
       </c>
@@ -20535,7 +20552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A387" t="s">
         <v>372</v>
       </c>
@@ -20608,7 +20625,7 @@
         <v>19</v>
       </c>
       <c r="I388">
-        <v>7120666</v>
+        <v>28376355</v>
       </c>
       <c r="J388">
         <v>576.82000000000005</v>
@@ -20655,7 +20672,7 @@
         <v>116</v>
       </c>
       <c r="I389">
-        <v>5312400</v>
+        <v>7120666</v>
       </c>
       <c r="J389">
         <v>45.04</v>
@@ -20676,7 +20693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A390" t="s">
         <v>94</v>
       </c>
@@ -20723,7 +20740,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A391" t="s">
         <v>446</v>
       </c>
@@ -20770,7 +20787,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A392" t="s">
         <v>464</v>
       </c>
@@ -20817,7 +20834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A393" t="s">
         <v>367</v>
       </c>
@@ -20890,7 +20907,7 @@
         <v>23</v>
       </c>
       <c r="I394">
-        <v>5445324</v>
+        <v>5312400</v>
       </c>
       <c r="J394">
         <v>239.7</v>
@@ -20937,7 +20954,7 @@
         <v>47</v>
       </c>
       <c r="I395">
-        <v>2061770</v>
+        <v>5445324</v>
       </c>
       <c r="J395">
         <v>95.99</v>
@@ -20984,7 +21001,7 @@
         <v>65</v>
       </c>
       <c r="I396">
-        <v>51770560</v>
+        <v>2061770</v>
       </c>
       <c r="J396">
         <v>49.54</v>
@@ -21005,7 +21022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A397" t="s">
         <v>118</v>
       </c>
@@ -21052,7 +21069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A398" t="s">
         <v>124</v>
       </c>
@@ -21099,7 +21116,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A399" t="s">
         <v>92</v>
       </c>
@@ -21146,7 +21163,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A400" t="s">
         <v>97</v>
       </c>
@@ -21193,7 +21210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A401" t="s">
         <v>448</v>
       </c>
@@ -21240,7 +21257,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A402" t="s">
         <v>491</v>
       </c>
@@ -21287,7 +21304,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A403" t="s">
         <v>284</v>
       </c>
@@ -21360,7 +21377,7 @@
         <v>125</v>
       </c>
       <c r="I404">
-        <v>50004441</v>
+        <v>51770560</v>
       </c>
       <c r="J404">
         <v>408.24</v>
@@ -21381,7 +21398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A405" t="s">
         <v>78</v>
       </c>
@@ -21428,7 +21445,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A406" t="s">
         <v>131</v>
       </c>
@@ -21475,7 +21492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A407" t="s">
         <v>115</v>
       </c>
@@ -21522,7 +21539,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A408" t="s">
         <v>31</v>
       </c>
@@ -21569,7 +21586,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A409" t="s">
         <v>390</v>
       </c>
@@ -21616,7 +21633,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A410" t="s">
         <v>319</v>
       </c>
@@ -21663,7 +21680,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A411" t="s">
         <v>329</v>
       </c>
@@ -21710,7 +21727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A412" t="s">
         <v>443</v>
       </c>
@@ -21757,7 +21774,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A413" t="s">
         <v>465</v>
       </c>
@@ -21804,7 +21821,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A414" t="s">
         <v>392</v>
       </c>
@@ -21851,7 +21868,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A415" t="s">
         <v>286</v>
       </c>
@@ -21924,7 +21941,7 @@
         <v>248</v>
       </c>
       <c r="I416">
-        <v>46163116</v>
+        <v>50004441</v>
       </c>
       <c r="J416">
         <v>1116.25</v>
@@ -21942,7 +21959,7 @@
         <v>0</v>
       </c>
       <c r="O416">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:15" x14ac:dyDescent="0.35">
@@ -21971,7 +21988,7 @@
         <v>282</v>
       </c>
       <c r="I417">
-        <v>9540065</v>
+        <v>46163116</v>
       </c>
       <c r="J417">
         <v>1490.81</v>
@@ -21989,7 +22006,7 @@
         <v>0</v>
       </c>
       <c r="O417">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:15" x14ac:dyDescent="0.35">
@@ -22018,7 +22035,7 @@
         <v>134</v>
       </c>
       <c r="I418">
-        <v>8000001</v>
+        <v>9540065</v>
       </c>
       <c r="J418">
         <v>538.13</v>
@@ -22039,7 +22056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A419" t="s">
         <v>117</v>
       </c>
@@ -22086,7 +22103,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A420" t="s">
         <v>90</v>
       </c>
@@ -22133,7 +22150,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A421" t="s">
         <v>474</v>
       </c>
@@ -22206,7 +22223,7 @@
         <v>102</v>
       </c>
       <c r="I422">
-        <v>23268372</v>
+        <v>8000001</v>
       </c>
       <c r="J422">
         <v>635.65</v>
@@ -22227,7 +22244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A423" t="s">
         <v>142</v>
       </c>
@@ -22274,7 +22291,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A424" t="s">
         <v>125</v>
       </c>
@@ -22321,7 +22338,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A425" t="s">
         <v>122</v>
       </c>
@@ -22368,7 +22385,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A426" t="s">
         <v>415</v>
       </c>
@@ -22415,7 +22432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A427" t="s">
         <v>346</v>
       </c>
@@ -22462,7 +22479,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A428" t="s">
         <v>113</v>
       </c>
@@ -22509,7 +22526,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A429" t="s">
         <v>116</v>
       </c>
@@ -22556,7 +22573,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
         <v>114</v>
       </c>
@@ -22603,7 +22620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A431" t="s">
         <v>100</v>
       </c>
@@ -22650,7 +22667,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A432" t="s">
         <v>422</v>
       </c>
@@ -22697,7 +22714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A433" t="s">
         <v>289</v>
       </c>
@@ -22770,7 +22787,7 @@
         <v>44</v>
       </c>
       <c r="I434">
-        <v>7800000</v>
+        <v>23268372</v>
       </c>
       <c r="J434">
         <v>466</v>
@@ -22817,7 +22834,7 @@
         <v>16</v>
       </c>
       <c r="I435">
-        <v>65479453</v>
+        <v>7800000</v>
       </c>
       <c r="J435">
         <v>6.52</v>
@@ -22838,7 +22855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A436" t="s">
         <v>49</v>
       </c>
@@ -22885,7 +22902,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A437" t="s">
         <v>74</v>
       </c>
@@ -22932,7 +22949,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A438" t="s">
         <v>89</v>
       </c>
@@ -22979,7 +22996,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A439" t="s">
         <v>111</v>
       </c>
@@ -23026,7 +23043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
         <v>24</v>
       </c>
@@ -23073,7 +23090,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
         <v>407</v>
       </c>
@@ -23120,7 +23137,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A442" t="s">
         <v>429</v>
       </c>
@@ -23167,7 +23184,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
         <v>356</v>
       </c>
@@ -23214,7 +23231,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A444" t="s">
         <v>123</v>
       </c>
@@ -23261,7 +23278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A445" t="s">
         <v>508</v>
       </c>
@@ -23308,7 +23325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A446" t="s">
         <v>27</v>
       </c>
@@ -23355,7 +23372,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A447" t="s">
         <v>486</v>
       </c>
@@ -23402,7 +23419,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A448" t="s">
         <v>317</v>
       </c>
@@ -23449,7 +23466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A449" t="s">
         <v>494</v>
       </c>
@@ -23496,7 +23513,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A450" t="s">
         <v>377</v>
       </c>
@@ -23543,7 +23560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A451" t="s">
         <v>315</v>
       </c>
@@ -23590,7 +23607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A452" t="s">
         <v>463</v>
       </c>
@@ -23637,7 +23654,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A453" t="s">
         <v>500</v>
       </c>
@@ -23710,7 +23727,7 @@
         <v>37</v>
       </c>
       <c r="I454">
-        <v>1317714</v>
+        <v>65479453</v>
       </c>
       <c r="J454">
         <v>345.65</v>
@@ -23757,7 +23774,7 @@
         <v>30</v>
       </c>
       <c r="I455">
-        <v>10673800</v>
+        <v>1317714</v>
       </c>
       <c r="J455">
         <v>22.48</v>
@@ -23778,7 +23795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A456" t="s">
         <v>112</v>
       </c>
@@ -23825,7 +23842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A457" t="s">
         <v>454</v>
       </c>
@@ -23872,7 +23889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A458" t="s">
         <v>389</v>
       </c>
@@ -23919,7 +23936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A459" t="s">
         <v>421</v>
       </c>
@@ -23966,7 +23983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
         <v>294</v>
       </c>
@@ -24013,7 +24030,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A461" t="s">
         <v>397</v>
       </c>
@@ -24060,7 +24077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A462" t="s">
         <v>345</v>
       </c>
@@ -24107,7 +24124,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A463" t="s">
         <v>386</v>
       </c>
@@ -24154,7 +24171,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
         <v>41</v>
       </c>
@@ -24201,7 +24218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A465" t="s">
         <v>472</v>
       </c>
@@ -24274,7 +24291,7 @@
         <v>83</v>
       </c>
       <c r="I466">
-        <v>74724269</v>
+        <v>10673800</v>
       </c>
       <c r="J466">
         <v>45.86</v>
@@ -24321,7 +24338,7 @@
         <v>114</v>
       </c>
       <c r="I467">
-        <v>34131400</v>
+        <v>74724269</v>
       </c>
       <c r="J467">
         <v>773.09</v>
@@ -24342,7 +24359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A468" t="s">
         <v>73</v>
       </c>
@@ -24389,7 +24406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A469" t="s">
         <v>399</v>
       </c>
@@ -24436,7 +24453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A470" t="s">
         <v>43</v>
       </c>
@@ -24483,7 +24500,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A471" t="s">
         <v>460</v>
       </c>
@@ -24556,7 +24573,7 @@
         <v>16</v>
       </c>
       <c r="I472">
-        <v>45560272</v>
+        <v>34131400</v>
       </c>
       <c r="J472">
         <v>16.809999999999999</v>
@@ -24577,7 +24594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A473" t="s">
         <v>55</v>
       </c>
@@ -24624,7 +24641,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A474" t="s">
         <v>305</v>
       </c>
@@ -24671,7 +24688,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A475" t="s">
         <v>109</v>
       </c>
@@ -24718,7 +24735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A476" t="s">
         <v>110</v>
       </c>
@@ -24765,7 +24782,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A477" t="s">
         <v>108</v>
       </c>
@@ -24812,7 +24829,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A478" t="s">
         <v>303</v>
       </c>
@@ -24885,7 +24902,7 @@
         <v>237</v>
       </c>
       <c r="I479">
-        <v>314838000</v>
+        <v>45560272</v>
       </c>
       <c r="J479">
         <v>165.25</v>
@@ -24903,10 +24920,10 @@
         <v>0</v>
       </c>
       <c r="O479">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="480" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A480" t="s">
         <v>280</v>
       </c>
@@ -24953,7 +24970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A481" t="s">
         <v>15</v>
       </c>
@@ -25000,7 +25017,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A482" t="s">
         <v>388</v>
       </c>
@@ -25047,7 +25064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A483" t="s">
         <v>363</v>
       </c>
@@ -25094,7 +25111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
         <v>306</v>
       </c>
@@ -25141,7 +25158,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A485" t="s">
         <v>462</v>
       </c>
@@ -25188,7 +25205,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A486" t="s">
         <v>107</v>
       </c>
@@ -25235,7 +25252,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A487" t="s">
         <v>438</v>
       </c>
@@ -25282,7 +25299,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A488" t="s">
         <v>450</v>
       </c>
@@ -25329,7 +25346,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A489" t="s">
         <v>57</v>
       </c>
@@ -25376,7 +25393,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A490" t="s">
         <v>338</v>
       </c>
@@ -25423,7 +25440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A491" t="s">
         <v>374</v>
       </c>
@@ -25496,7 +25513,7 @@
         <v>530</v>
       </c>
       <c r="I492">
-        <v>29123400</v>
+        <v>314838000</v>
       </c>
       <c r="J492">
         <v>15094</v>
@@ -25514,10 +25531,10 @@
         <v>0</v>
       </c>
       <c r="O492">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="493" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="493" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A493" t="s">
         <v>45</v>
       </c>
@@ -25564,7 +25581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A494" t="s">
         <v>105</v>
       </c>
@@ -25611,7 +25628,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A495" t="s">
         <v>106</v>
       </c>
@@ -25684,7 +25701,7 @@
         <v>54</v>
       </c>
       <c r="I496">
-        <v>28946101</v>
+        <v>29123400</v>
       </c>
       <c r="J496">
         <v>45.36</v>
@@ -25731,7 +25748,7 @@
         <v>70</v>
       </c>
       <c r="I497">
-        <v>19406100</v>
+        <v>28946101</v>
       </c>
       <c r="J497">
         <v>316.48</v>
@@ -25752,7 +25769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A498" t="s">
         <v>28</v>
       </c>
@@ -25799,7 +25816,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="499" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
         <v>495</v>
       </c>
@@ -25846,7 +25863,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="500" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A500" t="s">
         <v>416</v>
       </c>
@@ -25893,7 +25910,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A501" t="s">
         <v>509</v>
       </c>
@@ -25940,7 +25957,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A502" t="s">
         <v>291</v>
       </c>
@@ -25987,7 +26004,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="503" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A503" t="s">
         <v>431</v>
       </c>
@@ -26060,7 +26077,7 @@
         <v>18</v>
       </c>
       <c r="I504">
-        <v>87840000</v>
+        <v>91519289</v>
       </c>
       <c r="J504">
         <v>1.95</v>
@@ -26081,7 +26098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A505" t="s">
         <v>357</v>
       </c>
@@ -26128,7 +26145,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A506" t="s">
         <v>101</v>
       </c>
@@ -26175,7 +26192,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="1:15" hidden="1" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A507" t="s">
         <v>104</v>
       </c>
@@ -26222,106 +26239,16 @@
         <v>4</v>
       </c>
     </row>
-    <row r="508" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="509" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="510" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="511" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="512" spans="1:15" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="513" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="514" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="515" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="516" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="517" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="518" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="519" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="520" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="521" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="522" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="523" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="524" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="525" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="526" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="527" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="528" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="529" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="530" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="531" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="532" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="533" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="534" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="535" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="536" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="537" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="538" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="539" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="540" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="541" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="542" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="543" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="544" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="545" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="546" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="547" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="548" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="549" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="550" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="551" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="552" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="553" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="554" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="555" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="556" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="557" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="558" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="559" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="560" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="561" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="562" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="563" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="564" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="565" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="566" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="567" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="568" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="569" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="570" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="571" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="572" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="573" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="574" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="575" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="576" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="577" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="578" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="579" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="580" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="581" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="582" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="583" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="584" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="585" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="586" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="587" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="588" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="589" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="590" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="591" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="592" hidden="1" x14ac:dyDescent="0.35"/>
-    <row r="593" hidden="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <autoFilter ref="A1:N593" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="2012"/>
-      </filters>
-    </filterColumn>
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N593">
-      <sortCondition ref="B1"/>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:N504">
+      <sortCondition ref="B1:B593"/>
     </sortState>
   </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A47:O504">
-    <sortCondition ref="B1:B593"/>
+    <sortCondition descending="1" ref="H1:H593"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/final_df.xlsx
+++ b/final_df.xlsx
@@ -1,27 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mattw\Butlerdata\Machine-Learning-Project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hema/Desktop/butlerdata/Machine-Learning-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE69577F-3D2D-4633-83B5-9AB141FB699F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684F93AA-FA5F-1F4B-8DF5-2DE76BA90BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1580" yWindow="2600" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$N$593</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -2060,19 +2068,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2398,18 +2393,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="K595" sqref="K595"/>
+    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
+      <selection activeCell="R510" sqref="R510"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="15.1796875" customWidth="1"/>
-    <col min="9" max="9" width="14.54296875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.81640625" customWidth="1"/>
+    <col min="2" max="2" width="15.1640625" customWidth="1"/>
+    <col min="9" max="9" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="8.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2457,7 +2452,7 @@
       </c>
       <c r="P1" s="3"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>437</v>
       </c>
@@ -2504,7 +2499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>442</v>
       </c>
@@ -2551,7 +2546,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>447</v>
       </c>
@@ -2598,7 +2593,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>449</v>
       </c>
@@ -2645,7 +2640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>451</v>
       </c>
@@ -2692,7 +2687,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>466</v>
       </c>
@@ -2739,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>467</v>
       </c>
@@ -2786,7 +2781,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>470</v>
       </c>
@@ -2833,7 +2828,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>471</v>
       </c>
@@ -2880,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>477</v>
       </c>
@@ -2927,7 +2922,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>478</v>
       </c>
@@ -2974,7 +2969,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>481</v>
       </c>
@@ -3021,7 +3016,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>485</v>
       </c>
@@ -3068,7 +3063,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>493</v>
       </c>
@@ -3115,7 +3110,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>502</v>
       </c>
@@ -3162,7 +3157,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>510</v>
       </c>
@@ -3209,7 +3204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>512</v>
       </c>
@@ -3256,7 +3251,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>371</v>
       </c>
@@ -3303,7 +3298,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>380</v>
       </c>
@@ -3350,7 +3345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>382</v>
       </c>
@@ -3397,7 +3392,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>391</v>
       </c>
@@ -3444,7 +3439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>393</v>
       </c>
@@ -3491,7 +3486,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>405</v>
       </c>
@@ -3538,7 +3533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>412</v>
       </c>
@@ -3585,7 +3580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>425</v>
       </c>
@@ -3632,7 +3627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>427</v>
       </c>
@@ -3679,7 +3674,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>430</v>
       </c>
@@ -3726,7 +3721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>276</v>
       </c>
@@ -3773,7 +3768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>288</v>
       </c>
@@ -3820,7 +3815,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>290</v>
       </c>
@@ -3867,7 +3862,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>298</v>
       </c>
@@ -3914,7 +3909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>309</v>
       </c>
@@ -3961,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>314</v>
       </c>
@@ -4008,7 +4003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>323</v>
       </c>
@@ -4055,7 +4050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>324</v>
       </c>
@@ -4102,7 +4097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>326</v>
       </c>
@@ -4149,7 +4144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>334</v>
       </c>
@@ -4196,7 +4191,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>339</v>
       </c>
@@ -4243,7 +4238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>341</v>
       </c>
@@ -4290,7 +4285,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>344</v>
       </c>
@@ -4337,7 +4332,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>347</v>
       </c>
@@ -4384,7 +4379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>352</v>
       </c>
@@ -4431,7 +4426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>354</v>
       </c>
@@ -4478,7 +4473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>359</v>
       </c>
@@ -4525,7 +4520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>360</v>
       </c>
@@ -4572,7 +4567,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>189</v>
       </c>
@@ -4619,7 +4614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>190</v>
       </c>
@@ -4666,7 +4661,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>191</v>
       </c>
@@ -4713,7 +4708,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>192</v>
       </c>
@@ -4760,7 +4755,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>193</v>
       </c>
@@ -4807,7 +4802,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>194</v>
       </c>
@@ -4854,7 +4849,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>195</v>
       </c>
@@ -4901,7 +4896,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>196</v>
       </c>
@@ -4948,7 +4943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>197</v>
       </c>
@@ -4995,7 +4990,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>198</v>
       </c>
@@ -5042,7 +5037,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>199</v>
       </c>
@@ -5089,7 +5084,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>200</v>
       </c>
@@ -5136,7 +5131,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>201</v>
       </c>
@@ -5183,7 +5178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>202</v>
       </c>
@@ -5230,7 +5225,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>203</v>
       </c>
@@ -5277,7 +5272,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>204</v>
       </c>
@@ -5324,7 +5319,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>205</v>
       </c>
@@ -5371,7 +5366,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>206</v>
       </c>
@@ -5418,7 +5413,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>207</v>
       </c>
@@ -5465,7 +5460,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>208</v>
       </c>
@@ -5512,7 +5507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>180</v>
       </c>
@@ -5559,7 +5554,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>171</v>
       </c>
@@ -5606,7 +5601,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>181</v>
       </c>
@@ -5653,7 +5648,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>182</v>
       </c>
@@ -5700,7 +5695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>156</v>
       </c>
@@ -5747,7 +5742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>183</v>
       </c>
@@ -5794,7 +5789,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>172</v>
       </c>
@@ -5841,7 +5836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>157</v>
       </c>
@@ -5888,7 +5883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>158</v>
       </c>
@@ -5935,7 +5930,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>184</v>
       </c>
@@ -5982,7 +5977,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>173</v>
       </c>
@@ -6029,7 +6024,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>185</v>
       </c>
@@ -6076,7 +6071,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>174</v>
       </c>
@@ -6123,7 +6118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>186</v>
       </c>
@@ -6170,7 +6165,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>159</v>
       </c>
@@ -6217,7 +6212,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>175</v>
       </c>
@@ -6264,7 +6259,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>160</v>
       </c>
@@ -6311,7 +6306,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>161</v>
       </c>
@@ -6358,7 +6353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>187</v>
       </c>
@@ -6405,7 +6400,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>188</v>
       </c>
@@ -6452,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>19</v>
       </c>
@@ -6499,7 +6494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>22</v>
       </c>
@@ -6546,7 +6541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>23</v>
       </c>
@@ -6593,7 +6588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>26</v>
       </c>
@@ -6640,7 +6635,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>44</v>
       </c>
@@ -6687,7 +6682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>47</v>
       </c>
@@ -6734,7 +6729,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>640</v>
       </c>
@@ -6781,7 +6776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>62</v>
       </c>
@@ -6828,7 +6823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>65</v>
       </c>
@@ -6875,7 +6870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>66</v>
       </c>
@@ -6922,7 +6917,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>69</v>
       </c>
@@ -6969,7 +6964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>71</v>
       </c>
@@ -7016,7 +7011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>72</v>
       </c>
@@ -7063,7 +7058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>80</v>
       </c>
@@ -7110,7 +7105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>84</v>
       </c>
@@ -7157,7 +7152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>93</v>
       </c>
@@ -7204,7 +7199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>98</v>
       </c>
@@ -7251,7 +7246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>452</v>
       </c>
@@ -7298,7 +7293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>453</v>
       </c>
@@ -7345,7 +7340,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>483</v>
       </c>
@@ -7392,7 +7387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>492</v>
       </c>
@@ -7439,7 +7434,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>496</v>
       </c>
@@ -7486,7 +7481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
         <v>498</v>
       </c>
@@ -7533,7 +7528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>506</v>
       </c>
@@ -7580,7 +7575,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>366</v>
       </c>
@@ -7627,7 +7622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>375</v>
       </c>
@@ -7674,7 +7669,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>385</v>
       </c>
@@ -7721,7 +7716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>396</v>
       </c>
@@ -7768,7 +7763,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>409</v>
       </c>
@@ -7815,7 +7810,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>417</v>
       </c>
@@ -7862,7 +7857,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>433</v>
       </c>
@@ -7909,7 +7904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>277</v>
       </c>
@@ -7956,7 +7951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>283</v>
       </c>
@@ -8003,7 +7998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
         <v>285</v>
       </c>
@@ -8050,7 +8045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>297</v>
       </c>
@@ -8097,7 +8092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
         <v>299</v>
       </c>
@@ -8144,7 +8139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
         <v>300</v>
       </c>
@@ -8191,7 +8186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
         <v>312</v>
       </c>
@@ -8238,7 +8233,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
         <v>328</v>
       </c>
@@ -8285,7 +8280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>336</v>
       </c>
@@ -8332,7 +8327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
         <v>350</v>
       </c>
@@ -8379,7 +8374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
         <v>353</v>
       </c>
@@ -8426,7 +8421,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
         <v>209</v>
       </c>
@@ -8473,7 +8468,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
         <v>210</v>
       </c>
@@ -8520,7 +8515,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
         <v>211</v>
       </c>
@@ -8567,7 +8562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
         <v>212</v>
       </c>
@@ -8614,7 +8609,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>213</v>
       </c>
@@ -8661,7 +8656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>214</v>
       </c>
@@ -8708,7 +8703,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>215</v>
       </c>
@@ -8755,7 +8750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>216</v>
       </c>
@@ -8802,7 +8797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>217</v>
       </c>
@@ -8849,7 +8844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>218</v>
       </c>
@@ -8896,7 +8891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>219</v>
       </c>
@@ -8943,7 +8938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
         <v>220</v>
       </c>
@@ -8990,7 +8985,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>221</v>
       </c>
@@ -9037,7 +9032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>165</v>
       </c>
@@ -9084,7 +9079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>153</v>
       </c>
@@ -9131,7 +9126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
         <v>151</v>
       </c>
@@ -9178,7 +9173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
         <v>169</v>
       </c>
@@ -9225,7 +9220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
         <v>166</v>
       </c>
@@ -9272,7 +9267,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>179</v>
       </c>
@@ -9319,7 +9314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>154</v>
       </c>
@@ -9366,7 +9361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>155</v>
       </c>
@@ -9413,7 +9408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>170</v>
       </c>
@@ -9460,7 +9455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>152</v>
       </c>
@@ -9507,7 +9502,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>18</v>
       </c>
@@ -9554,7 +9549,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>37</v>
       </c>
@@ -9601,7 +9596,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>39</v>
       </c>
@@ -9648,7 +9643,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>40</v>
       </c>
@@ -9695,7 +9690,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>58</v>
       </c>
@@ -9742,7 +9737,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>61</v>
       </c>
@@ -9789,7 +9784,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>64</v>
       </c>
@@ -9836,7 +9831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>67</v>
       </c>
@@ -9883,7 +9878,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>75</v>
       </c>
@@ -9930,7 +9925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>95</v>
       </c>
@@ -9977,7 +9972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>96</v>
       </c>
@@ -10024,7 +10019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>439</v>
       </c>
@@ -10071,7 +10066,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>440</v>
       </c>
@@ -10118,7 +10113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>441</v>
       </c>
@@ -10165,7 +10160,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>457</v>
       </c>
@@ -10212,7 +10207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>479</v>
       </c>
@@ -10259,7 +10254,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>488</v>
       </c>
@@ -10306,7 +10301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>505</v>
       </c>
@@ -10353,7 +10348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>513</v>
       </c>
@@ -10400,7 +10395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>368</v>
       </c>
@@ -10447,7 +10442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
         <v>373</v>
       </c>
@@ -10494,7 +10489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>383</v>
       </c>
@@ -10541,7 +10536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>403</v>
       </c>
@@ -10588,7 +10583,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>406</v>
       </c>
@@ -10635,7 +10630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
         <v>414</v>
       </c>
@@ -10682,7 +10677,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>434</v>
       </c>
@@ -10729,7 +10724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>281</v>
       </c>
@@ -10776,7 +10771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>292</v>
       </c>
@@ -10823,7 +10818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>307</v>
       </c>
@@ -10870,7 +10865,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>310</v>
       </c>
@@ -10917,7 +10912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
         <v>313</v>
       </c>
@@ -10964,7 +10959,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
         <v>320</v>
       </c>
@@ -11011,7 +11006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
         <v>321</v>
       </c>
@@ -11058,7 +11053,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>340</v>
       </c>
@@ -11105,7 +11100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>222</v>
       </c>
@@ -11152,7 +11147,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>223</v>
       </c>
@@ -11199,7 +11194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>224</v>
       </c>
@@ -11246,7 +11241,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>225</v>
       </c>
@@ -11293,7 +11288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
         <v>226</v>
       </c>
@@ -11340,7 +11335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
         <v>168</v>
       </c>
@@ -11387,7 +11382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>177</v>
       </c>
@@ -11434,7 +11429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>149</v>
       </c>
@@ -11481,7 +11476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>645</v>
       </c>
@@ -11528,7 +11523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>178</v>
       </c>
@@ -11575,7 +11570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>164</v>
       </c>
@@ -11622,7 +11617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
         <v>13</v>
       </c>
@@ -11669,7 +11664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
         <v>35</v>
       </c>
@@ -11716,7 +11711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>63</v>
       </c>
@@ -11763,7 +11758,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>81</v>
       </c>
@@ -11810,7 +11805,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>83</v>
       </c>
@@ -11857,7 +11852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>88</v>
       </c>
@@ -11904,7 +11899,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>436</v>
       </c>
@@ -11951,7 +11946,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="204" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>459</v>
       </c>
@@ -11998,7 +11993,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="205" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>469</v>
       </c>
@@ -12045,7 +12040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>487</v>
       </c>
@@ -12092,7 +12087,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
         <v>489</v>
       </c>
@@ -12139,7 +12134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
         <v>511</v>
       </c>
@@ -12186,7 +12181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>387</v>
       </c>
@@ -12233,7 +12228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="210" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>394</v>
       </c>
@@ -12280,7 +12275,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="211" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>402</v>
       </c>
@@ -12327,7 +12322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="212" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
         <v>404</v>
       </c>
@@ -12374,7 +12369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="213" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
         <v>419</v>
       </c>
@@ -12421,7 +12416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="214" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
         <v>302</v>
       </c>
@@ -12468,7 +12463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
         <v>325</v>
       </c>
@@ -12515,7 +12510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
         <v>327</v>
       </c>
@@ -12562,7 +12557,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="217" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
         <v>644</v>
       </c>
@@ -12609,7 +12604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="218" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
         <v>358</v>
       </c>
@@ -12656,7 +12651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="219" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
         <v>361</v>
       </c>
@@ -12703,7 +12698,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
         <v>227</v>
       </c>
@@ -12750,7 +12745,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
         <v>228</v>
       </c>
@@ -12797,7 +12792,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="222" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
         <v>229</v>
       </c>
@@ -12844,7 +12839,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="223" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
         <v>230</v>
       </c>
@@ -12891,7 +12886,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="224" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
         <v>231</v>
       </c>
@@ -12938,7 +12933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="225" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
         <v>232</v>
       </c>
@@ -12985,7 +12980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="226" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
         <v>233</v>
       </c>
@@ -13032,7 +13027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
         <v>234</v>
       </c>
@@ -13079,7 +13074,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
         <v>130</v>
       </c>
@@ -13126,7 +13121,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
         <v>145</v>
       </c>
@@ -13173,7 +13168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
         <v>167</v>
       </c>
@@ -13220,7 +13215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
         <v>176</v>
       </c>
@@ -13267,7 +13262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
         <v>150</v>
       </c>
@@ -13314,7 +13309,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="233" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
         <v>140</v>
       </c>
@@ -13361,7 +13356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
         <v>148</v>
       </c>
@@ -13408,7 +13403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="235" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
         <v>14</v>
       </c>
@@ -13455,7 +13450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="236" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
         <v>38</v>
       </c>
@@ -13502,7 +13497,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A237" t="s">
         <v>46</v>
       </c>
@@ -13549,7 +13544,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="238" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A238" t="s">
         <v>53</v>
       </c>
@@ -13596,7 +13591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="239" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
         <v>54</v>
       </c>
@@ -13643,7 +13638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="240" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
         <v>68</v>
       </c>
@@ -13690,7 +13685,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="241" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
         <v>70</v>
       </c>
@@ -13737,7 +13732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
         <v>77</v>
       </c>
@@ -13784,7 +13779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
         <v>79</v>
       </c>
@@ -13831,7 +13826,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
         <v>82</v>
       </c>
@@ -13878,7 +13873,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="245" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
         <v>86</v>
       </c>
@@ -13925,7 +13920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="246" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
         <v>99</v>
       </c>
@@ -13972,7 +13967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="247" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
         <v>103</v>
       </c>
@@ -14019,7 +14014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="248" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A248" t="s">
         <v>435</v>
       </c>
@@ -14066,7 +14061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
         <v>444</v>
       </c>
@@ -14113,7 +14108,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="250" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
         <v>480</v>
       </c>
@@ -14160,7 +14155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>484</v>
       </c>
@@ -14207,7 +14202,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>497</v>
       </c>
@@ -14254,7 +14249,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>499</v>
       </c>
@@ -14301,7 +14296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>642</v>
       </c>
@@ -14348,7 +14343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>507</v>
       </c>
@@ -14395,7 +14390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="256" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>365</v>
       </c>
@@ -14442,7 +14437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>376</v>
       </c>
@@ -14489,7 +14484,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="258" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>381</v>
       </c>
@@ -14536,7 +14531,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="259" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>398</v>
       </c>
@@ -14583,7 +14578,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="260" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>408</v>
       </c>
@@ -14630,7 +14625,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="261" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>410</v>
       </c>
@@ -14677,7 +14672,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>424</v>
       </c>
@@ -14724,7 +14719,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>643</v>
       </c>
@@ -14771,7 +14766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
         <v>432</v>
       </c>
@@ -14818,7 +14813,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
         <v>279</v>
       </c>
@@ -14865,7 +14860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
         <v>287</v>
       </c>
@@ -14912,7 +14907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
         <v>293</v>
       </c>
@@ -14959,7 +14954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
         <v>322</v>
       </c>
@@ -15006,7 +15001,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="269" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
         <v>331</v>
       </c>
@@ -15053,7 +15048,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
         <v>343</v>
       </c>
@@ -15100,7 +15095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
         <v>348</v>
       </c>
@@ -15147,7 +15142,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
         <v>355</v>
       </c>
@@ -15194,7 +15189,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
         <v>235</v>
       </c>
@@ -15241,7 +15236,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="274" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
         <v>236</v>
       </c>
@@ -15288,7 +15283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
         <v>237</v>
       </c>
@@ -15335,7 +15330,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
         <v>238</v>
       </c>
@@ -15382,7 +15377,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
         <v>162</v>
       </c>
@@ -15429,7 +15424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="278" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
         <v>163</v>
       </c>
@@ -15476,7 +15471,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="279" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
         <v>29</v>
       </c>
@@ -15523,7 +15518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
         <v>34</v>
       </c>
@@ -15570,7 +15565,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="281" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
         <v>51</v>
       </c>
@@ -15617,7 +15612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
         <v>87</v>
       </c>
@@ -15664,7 +15659,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
         <v>102</v>
       </c>
@@ -15711,7 +15706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
         <v>456</v>
       </c>
@@ -15758,7 +15753,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="285" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
         <v>461</v>
       </c>
@@ -15805,7 +15800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
         <v>468</v>
       </c>
@@ -15852,7 +15847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
         <v>482</v>
       </c>
@@ -15899,7 +15894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
         <v>362</v>
       </c>
@@ -15946,7 +15941,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
         <v>395</v>
       </c>
@@ -15993,7 +15988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
         <v>411</v>
       </c>
@@ -16040,7 +16035,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="291" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
         <v>418</v>
       </c>
@@ -16087,7 +16082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A292" t="s">
         <v>420</v>
       </c>
@@ -16134,7 +16129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="293" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A293" t="s">
         <v>278</v>
       </c>
@@ -16181,7 +16176,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="294" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A294" t="s">
         <v>282</v>
       </c>
@@ -16228,7 +16223,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="295" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A295" t="s">
         <v>311</v>
       </c>
@@ -16275,7 +16270,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="296" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A296" t="s">
         <v>332</v>
       </c>
@@ -16322,7 +16317,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="297" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A297" t="s">
         <v>342</v>
       </c>
@@ -16369,7 +16364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A298" t="s">
         <v>351</v>
       </c>
@@ -16416,7 +16411,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A299" t="s">
         <v>239</v>
       </c>
@@ -16463,7 +16458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A300" t="s">
         <v>240</v>
       </c>
@@ -16510,7 +16505,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A301" t="s">
         <v>241</v>
       </c>
@@ -16557,7 +16552,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A302" t="s">
         <v>242</v>
       </c>
@@ -16604,7 +16599,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="303" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A303" t="s">
         <v>138</v>
       </c>
@@ -16651,7 +16646,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>129</v>
       </c>
@@ -16698,7 +16693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="305" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>139</v>
       </c>
@@ -16745,7 +16740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="306" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>25</v>
       </c>
@@ -16792,7 +16787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
         <v>36</v>
       </c>
@@ -16839,7 +16834,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>48</v>
       </c>
@@ -16886,7 +16881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="309" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>475</v>
       </c>
@@ -16933,7 +16928,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="310" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>476</v>
       </c>
@@ -16980,7 +16975,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="311" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>364</v>
       </c>
@@ -17027,7 +17022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="312" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>384</v>
       </c>
@@ -17074,7 +17069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="313" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>401</v>
       </c>
@@ -17121,7 +17116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="314" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>423</v>
       </c>
@@ -17168,7 +17163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="315" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>295</v>
       </c>
@@ -17215,7 +17210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="316" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>296</v>
       </c>
@@ -17262,7 +17257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
         <v>301</v>
       </c>
@@ -17309,7 +17304,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="318" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
         <v>304</v>
       </c>
@@ -17356,7 +17351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="319" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
         <v>349</v>
       </c>
@@ -17403,7 +17398,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="320" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
         <v>243</v>
       </c>
@@ -17450,7 +17445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="321" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
         <v>244</v>
       </c>
@@ -17497,7 +17492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="322" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
         <v>245</v>
       </c>
@@ -17544,7 +17539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="323" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
         <v>141</v>
       </c>
@@ -17591,7 +17586,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="324" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
         <v>137</v>
       </c>
@@ -17638,7 +17633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="325" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
         <v>127</v>
       </c>
@@ -17685,7 +17680,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="326" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
         <v>16</v>
       </c>
@@ -17732,7 +17727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="327" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
         <v>17</v>
       </c>
@@ -17779,7 +17774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
         <v>20</v>
       </c>
@@ -17826,7 +17821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
         <v>21</v>
       </c>
@@ -17873,7 +17868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
         <v>50</v>
       </c>
@@ -17920,7 +17915,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="331" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
         <v>52</v>
       </c>
@@ -17967,7 +17962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="332" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
         <v>455</v>
       </c>
@@ -18014,7 +18009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="333" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
         <v>458</v>
       </c>
@@ -18061,7 +18056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="334" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
         <v>379</v>
       </c>
@@ -18108,7 +18103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>400</v>
       </c>
@@ -18155,7 +18150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="336" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
         <v>426</v>
       </c>
@@ -18202,7 +18197,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="337" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
         <v>246</v>
       </c>
@@ -18249,7 +18244,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="338" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A338" t="s">
         <v>247</v>
       </c>
@@ -18296,7 +18291,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="339" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A339" t="s">
         <v>126</v>
       </c>
@@ -18343,7 +18338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A340" t="s">
         <v>147</v>
       </c>
@@ -18390,7 +18385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="341" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A341" t="s">
         <v>128</v>
       </c>
@@ -18437,7 +18432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="342" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A342" t="s">
         <v>135</v>
       </c>
@@ -18484,7 +18479,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="343" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A343" t="s">
         <v>144</v>
       </c>
@@ -18531,7 +18526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="344" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A344" t="s">
         <v>30</v>
       </c>
@@ -18578,7 +18573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="345" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>42</v>
       </c>
@@ -18625,7 +18620,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="346" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A346" t="s">
         <v>59</v>
       </c>
@@ -18672,7 +18667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="347" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A347" t="s">
         <v>76</v>
       </c>
@@ -18719,7 +18714,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="348" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A348" t="s">
         <v>473</v>
       </c>
@@ -18766,7 +18761,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="349" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>504</v>
       </c>
@@ -18813,7 +18808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="350" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>378</v>
       </c>
@@ -18860,7 +18855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="351" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>318</v>
       </c>
@@ -18907,7 +18902,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="352" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>330</v>
       </c>
@@ -18954,7 +18949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="353" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>333</v>
       </c>
@@ -19001,7 +18996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="354" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>337</v>
       </c>
@@ -19048,7 +19043,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="355" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>248</v>
       </c>
@@ -19095,7 +19090,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="356" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>249</v>
       </c>
@@ -19142,7 +19137,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="357" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>143</v>
       </c>
@@ -19189,7 +19184,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="358" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>56</v>
       </c>
@@ -19236,7 +19231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="359" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>85</v>
       </c>
@@ -19283,7 +19278,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="360" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>91</v>
       </c>
@@ -19330,7 +19325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="361" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>490</v>
       </c>
@@ -19377,7 +19372,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="362" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>369</v>
       </c>
@@ -19424,7 +19419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="363" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
         <v>413</v>
       </c>
@@ -19471,7 +19466,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="364" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
         <v>308</v>
       </c>
@@ -19518,7 +19513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="365" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>250</v>
       </c>
@@ -19565,7 +19560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="366" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
         <v>251</v>
       </c>
@@ -19612,7 +19607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="367" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
         <v>252</v>
       </c>
@@ -19659,7 +19654,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="368" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
         <v>120</v>
       </c>
@@ -19706,7 +19701,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>146</v>
       </c>
@@ -19753,7 +19748,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
         <v>133</v>
       </c>
@@ -19800,7 +19795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
         <v>60</v>
       </c>
@@ -19847,7 +19842,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
         <v>501</v>
       </c>
@@ -19894,7 +19889,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="373" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>428</v>
       </c>
@@ -19941,7 +19936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="374" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
         <v>316</v>
       </c>
@@ -19988,7 +19983,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
         <v>335</v>
       </c>
@@ -20035,7 +20030,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="376" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
         <v>253</v>
       </c>
@@ -20082,7 +20077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>121</v>
       </c>
@@ -20129,7 +20124,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="378" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
         <v>119</v>
       </c>
@@ -20176,7 +20171,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
         <v>136</v>
       </c>
@@ -20223,7 +20218,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="380" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
         <v>132</v>
       </c>
@@ -20270,7 +20265,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="381" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>134</v>
       </c>
@@ -20317,7 +20312,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="382" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
         <v>32</v>
       </c>
@@ -20364,7 +20359,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="383" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
         <v>33</v>
       </c>
@@ -20411,7 +20406,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="384" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A384" t="s">
         <v>445</v>
       </c>
@@ -20458,7 +20453,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="385" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>503</v>
       </c>
@@ -20505,7 +20500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="386" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A386" t="s">
         <v>370</v>
       </c>
@@ -20552,7 +20547,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="387" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A387" t="s">
         <v>372</v>
       </c>
@@ -20599,7 +20594,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="388" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A388" t="s">
         <v>254</v>
       </c>
@@ -20646,7 +20641,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>255</v>
       </c>
@@ -20693,7 +20688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="390" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A390" t="s">
         <v>94</v>
       </c>
@@ -20740,7 +20735,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="391" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A391" t="s">
         <v>446</v>
       </c>
@@ -20787,7 +20782,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="392" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A392" t="s">
         <v>464</v>
       </c>
@@ -20834,7 +20829,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="393" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
         <v>367</v>
       </c>
@@ -20881,7 +20876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="394" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A394" t="s">
         <v>256</v>
       </c>
@@ -20928,7 +20923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A395" t="s">
         <v>257</v>
       </c>
@@ -20975,7 +20970,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>258</v>
       </c>
@@ -21022,7 +21017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>118</v>
       </c>
@@ -21069,7 +21064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="398" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>124</v>
       </c>
@@ -21116,7 +21111,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
         <v>92</v>
       </c>
@@ -21163,7 +21158,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="400" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>97</v>
       </c>
@@ -21210,7 +21205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="401" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>448</v>
       </c>
@@ -21257,7 +21252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>491</v>
       </c>
@@ -21304,7 +21299,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="403" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>284</v>
       </c>
@@ -21351,7 +21346,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="404" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
         <v>259</v>
       </c>
@@ -21398,7 +21393,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="405" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
         <v>78</v>
       </c>
@@ -21445,7 +21440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="406" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>131</v>
       </c>
@@ -21492,7 +21487,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="407" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>115</v>
       </c>
@@ -21539,7 +21534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="408" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>31</v>
       </c>
@@ -21586,7 +21581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="409" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
         <v>390</v>
       </c>
@@ -21633,7 +21628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="410" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
         <v>319</v>
       </c>
@@ -21680,7 +21675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="411" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
         <v>329</v>
       </c>
@@ -21727,7 +21722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="412" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
         <v>443</v>
       </c>
@@ -21774,7 +21769,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="413" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
         <v>465</v>
       </c>
@@ -21821,7 +21816,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="414" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
         <v>392</v>
       </c>
@@ -21868,7 +21863,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="415" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
         <v>286</v>
       </c>
@@ -21915,7 +21910,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="416" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
         <v>260</v>
       </c>
@@ -21962,7 +21957,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="417" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
         <v>261</v>
       </c>
@@ -22009,7 +22004,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="418" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
         <v>262</v>
       </c>
@@ -22056,7 +22051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="419" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
         <v>117</v>
       </c>
@@ -22103,7 +22098,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="420" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
         <v>90</v>
       </c>
@@ -22150,7 +22145,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="421" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
         <v>474</v>
       </c>
@@ -22197,7 +22192,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="422" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
         <v>263</v>
       </c>
@@ -22244,7 +22239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="423" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
         <v>142</v>
       </c>
@@ -22291,7 +22286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="424" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
         <v>125</v>
       </c>
@@ -22338,7 +22333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="425" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
         <v>122</v>
       </c>
@@ -22385,7 +22380,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="426" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
         <v>415</v>
       </c>
@@ -22432,7 +22427,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="427" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
         <v>346</v>
       </c>
@@ -22479,7 +22474,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="428" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
         <v>113</v>
       </c>
@@ -22526,7 +22521,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="429" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
         <v>116</v>
       </c>
@@ -22573,7 +22568,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="430" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A430" t="s">
         <v>114</v>
       </c>
@@ -22620,7 +22615,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="431" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A431" t="s">
         <v>100</v>
       </c>
@@ -22667,7 +22662,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="432" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A432" t="s">
         <v>422</v>
       </c>
@@ -22714,7 +22709,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="433" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A433" t="s">
         <v>289</v>
       </c>
@@ -22761,7 +22756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="434" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A434" t="s">
         <v>264</v>
       </c>
@@ -22808,7 +22803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="435" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A435" t="s">
         <v>265</v>
       </c>
@@ -22855,7 +22850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="436" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A436" t="s">
         <v>49</v>
       </c>
@@ -22902,7 +22897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="437" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A437" t="s">
         <v>74</v>
       </c>
@@ -22949,7 +22944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="438" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A438" t="s">
         <v>89</v>
       </c>
@@ -22996,7 +22991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="439" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A439" t="s">
         <v>111</v>
       </c>
@@ -23043,7 +23038,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="440" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>24</v>
       </c>
@@ -23090,7 +23085,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="441" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A441" t="s">
         <v>407</v>
       </c>
@@ -23137,7 +23132,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="442" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>429</v>
       </c>
@@ -23184,7 +23179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="443" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>356</v>
       </c>
@@ -23231,7 +23226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="444" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>123</v>
       </c>
@@ -23278,7 +23273,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="445" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
         <v>508</v>
       </c>
@@ -23325,7 +23320,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="446" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>27</v>
       </c>
@@ -23372,7 +23367,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="447" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>486</v>
       </c>
@@ -23419,7 +23414,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="448" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>317</v>
       </c>
@@ -23466,7 +23461,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="449" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>494</v>
       </c>
@@ -23513,7 +23508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="450" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>377</v>
       </c>
@@ -23560,7 +23555,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="451" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>315</v>
       </c>
@@ -23607,7 +23602,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="452" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>463</v>
       </c>
@@ -23654,7 +23649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="453" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>500</v>
       </c>
@@ -23701,7 +23696,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="454" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>266</v>
       </c>
@@ -23748,7 +23743,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="455" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
         <v>267</v>
       </c>
@@ -23795,7 +23790,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="456" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
         <v>112</v>
       </c>
@@ -23842,7 +23837,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="457" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
         <v>454</v>
       </c>
@@ -23889,7 +23884,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="458" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
         <v>389</v>
       </c>
@@ -23936,7 +23931,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="459" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
         <v>421</v>
       </c>
@@ -23983,7 +23978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="460" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
         <v>294</v>
       </c>
@@ -24030,7 +24025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="461" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
         <v>397</v>
       </c>
@@ -24077,7 +24072,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="462" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
         <v>345</v>
       </c>
@@ -24124,7 +24119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="463" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
         <v>386</v>
       </c>
@@ -24171,7 +24166,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="464" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
         <v>41</v>
       </c>
@@ -24218,7 +24213,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="465" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
         <v>472</v>
       </c>
@@ -24265,7 +24260,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="466" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
         <v>268</v>
       </c>
@@ -24312,7 +24307,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="467" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
         <v>269</v>
       </c>
@@ -24359,7 +24354,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="468" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
         <v>73</v>
       </c>
@@ -24406,7 +24401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="469" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
         <v>399</v>
       </c>
@@ -24453,7 +24448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="470" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
         <v>43</v>
       </c>
@@ -24500,7 +24495,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="471" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
         <v>460</v>
       </c>
@@ -24547,7 +24542,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="472" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
         <v>270</v>
       </c>
@@ -24594,7 +24589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="473" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
         <v>55</v>
       </c>
@@ -24641,7 +24636,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="474" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
         <v>305</v>
       </c>
@@ -24688,7 +24683,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="475" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
         <v>109</v>
       </c>
@@ -24735,7 +24730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="476" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
         <v>110</v>
       </c>
@@ -24782,7 +24777,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="477" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
         <v>108</v>
       </c>
@@ -24829,7 +24824,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="478" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
         <v>303</v>
       </c>
@@ -24876,7 +24871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="479" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
         <v>271</v>
       </c>
@@ -24923,7 +24918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="480" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
         <v>280</v>
       </c>
@@ -24970,7 +24965,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="481" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
         <v>15</v>
       </c>
@@ -25017,7 +25012,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="482" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
         <v>388</v>
       </c>
@@ -25064,7 +25059,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="483" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
         <v>363</v>
       </c>
@@ -25111,7 +25106,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="484" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
         <v>306</v>
       </c>
@@ -25158,7 +25153,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="485" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
         <v>462</v>
       </c>
@@ -25205,7 +25200,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="486" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
         <v>107</v>
       </c>
@@ -25252,7 +25247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="487" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
         <v>438</v>
       </c>
@@ -25299,7 +25294,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="488" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>450</v>
       </c>
@@ -25346,7 +25341,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="489" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>57</v>
       </c>
@@ -25393,7 +25388,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="490" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>338</v>
       </c>
@@ -25440,7 +25435,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="491" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>374</v>
       </c>
@@ -25487,7 +25482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="492" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
         <v>272</v>
       </c>
@@ -25534,7 +25529,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="493" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
         <v>45</v>
       </c>
@@ -25581,7 +25576,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="494" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
         <v>105</v>
       </c>
@@ -25628,7 +25623,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="495" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
         <v>106</v>
       </c>
@@ -25675,7 +25670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="496" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
         <v>273</v>
       </c>
@@ -25722,7 +25717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="497" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
         <v>274</v>
       </c>
@@ -25769,7 +25764,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="498" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
         <v>28</v>
       </c>
@@ -25816,7 +25811,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="499" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
         <v>495</v>
       </c>
@@ -25863,7 +25858,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="500" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
         <v>416</v>
       </c>
@@ -25910,7 +25905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="501" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
         <v>509</v>
       </c>
@@ -25957,7 +25952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="502" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
         <v>291</v>
       </c>
@@ -26004,7 +25999,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="503" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
         <v>431</v>
       </c>
@@ -26051,7 +26046,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="504" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
         <v>275</v>
       </c>
@@ -26098,7 +26093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="505" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
         <v>357</v>
       </c>
@@ -26145,7 +26140,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="506" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="506" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
         <v>101</v>
       </c>
@@ -26192,7 +26187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="507" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="507" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
         <v>104</v>
       </c>

--- a/final_df.xlsx
+++ b/final_df.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Hema/Desktop/butlerdata/Machine-Learning-Project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684F93AA-FA5F-1F4B-8DF5-2DE76BA90BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C92CBC-846A-E24A-9377-0D0EC46CF4A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1580" yWindow="2600" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30240" yWindow="-15280" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1029" uniqueCount="648">
   <si>
     <t>YearCountry</t>
   </si>
@@ -1975,6 +1975,9 @@
   </si>
   <si>
     <t>Bins</t>
+  </si>
+  <si>
+    <t>2020Russia</t>
   </si>
 </sst>
 </file>
@@ -2391,10 +2394,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P507"/>
+  <dimension ref="A1:P508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A492" workbookViewId="0">
-      <selection activeCell="R510" sqref="R510"/>
+    <sheetView tabSelected="1" topLeftCell="A501" workbookViewId="0">
+      <selection activeCell="E522" sqref="E522"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -26232,6 +26235,53 @@
       </c>
       <c r="O507">
         <v>4</v>
+      </c>
+    </row>
+    <row r="508" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A508" t="s">
+        <v>647</v>
+      </c>
+      <c r="B508" t="s">
+        <v>613</v>
+      </c>
+      <c r="C508">
+        <v>2020</v>
+      </c>
+      <c r="D508">
+        <v>19</v>
+      </c>
+      <c r="E508">
+        <v>17</v>
+      </c>
+      <c r="F508">
+        <v>20</v>
+      </c>
+      <c r="G508">
+        <v>71</v>
+      </c>
+      <c r="H508">
+        <v>282</v>
+      </c>
+      <c r="I508">
+        <v>144096812</v>
+      </c>
+      <c r="J508">
+        <v>1310.21</v>
+      </c>
+      <c r="K508">
+        <v>64.686313999999996</v>
+      </c>
+      <c r="L508">
+        <v>97.745305999999999</v>
+      </c>
+      <c r="M508">
+        <v>599</v>
+      </c>
+      <c r="N508">
+        <v>0</v>
+      </c>
+      <c r="O508">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
